--- a/Översikt VANSBRO.xlsx
+++ b/Översikt VANSBRO.xlsx
@@ -575,7 +575,7 @@
         <v>45492</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>44820</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         <v>45987</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>45880.60349537037</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
         <v>45727</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>45735</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         <v>46014.48791666667</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>46007.50496527777</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1407,7 +1407,7 @@
         <v>45833</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>45483.31681712963</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>45842</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>45576</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>45735</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>45735</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
         <v>45409.75594907408</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>44442</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         <v>45840</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>45516</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>45842</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>45726</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44790</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>45735.5975925926</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
         <v>46034.58902777778</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>45394.56071759259</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>44439</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         <v>44307</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
         <v>44460</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         <v>45839</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>45956.10560185185</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         <v>45982.39892361111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>45576</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>45247.33710648148</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>44462</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>44881.42980324074</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3727,7 +3727,7 @@
         <v>44308</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3784,7 +3784,7 @@
         <v>44453.41665509259</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3846,7 +3846,7 @@
         <v>44337</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>44753</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>44519</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>44830.49607638889</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>44249</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>44453.52461805556</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>44708</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>44519</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>44673</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>44739.6862962963</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>44742.58832175926</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>44386.4465162037</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>44790</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>44826</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>44880.61246527778</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>44672</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>44739</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         <v>44790.63685185185</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>44336.408125</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>44371.61636574074</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>44465.84288194445</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>44774</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>44504.38153935185</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
         <v>44614</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>44817.35511574074</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5326,7 +5326,7 @@
         <v>44414</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5388,7 +5388,7 @@
         <v>44790.64916666667</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5450,7 +5450,7 @@
         <v>44732</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5512,7 +5512,7 @@
         <v>44827.6090625</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5574,7 +5574,7 @@
         <v>44748.65480324074</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5631,7 +5631,7 @@
         <v>44446.30186342593</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5688,7 +5688,7 @@
         <v>44300.45302083333</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>44476</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>44477</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>44643</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>44734.32988425926</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5983,7 +5983,7 @@
         <v>44812.48827546297</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>44754.39405092593</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
         <v>44754.39853009259</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>44816.40621527778</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>45530.64337962963</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>45443.52902777777</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>45498.40660879629</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>44442</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6464,7 +6464,7 @@
         <v>45575</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>44957</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>45141.37741898148</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>44886</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>45617.4893287037</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>45322</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>45078</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>45726.58685185185</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>45194.64940972222</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>45455.60853009259</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>45594.3728125</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7121,7 +7121,7 @@
         <v>44826.57543981481</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>44791</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>45183.49590277778</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>45544.67094907408</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7364,7 +7364,7 @@
         <v>45621.60984953704</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         <v>44796.504375</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
         <v>45315.61822916667</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7540,7 +7540,7 @@
         <v>45637.44667824074</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>44648.63498842593</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>45689.54017361111</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7711,7 +7711,7 @@
         <v>45680.54168981482</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         <v>45189.83035879629</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7825,7 +7825,7 @@
         <v>45512.62424768518</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7882,7 +7882,7 @@
         <v>45798</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         <v>45771.34391203704</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7996,7 +7996,7 @@
         <v>45754.65372685185</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8053,7 +8053,7 @@
         <v>45754.66079861111</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>45377.34850694444</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>45803.33614583333</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8229,7 +8229,7 @@
         <v>44298.57814814815</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>45532</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         <v>45689.52416666667</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         <v>45603.54407407407</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8462,7 +8462,7 @@
         <v>45634.73024305556</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8519,7 +8519,7 @@
         <v>45800.49591435185</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         <v>45884.62741898148</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8638,7 +8638,7 @@
         <v>45530.66306712963</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8695,7 +8695,7 @@
         <v>44925</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>45807</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8814,7 +8814,7 @@
         <v>45807</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
         <v>45806.5102662037</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
         <v>45888.65284722222</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
         <v>45810.43638888889</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>45888.65797453704</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>45811.54238425926</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         <v>45811.54483796296</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         <v>45888.6600925926</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         <v>45810.4090625</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9342,7 +9342,7 @@
         <v>45811.51887731482</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9399,7 +9399,7 @@
         <v>45811.53903935185</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9456,7 +9456,7 @@
         <v>45551.65304398148</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>45888.71024305555</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9570,7 +9570,7 @@
         <v>45811.56743055556</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9627,7 +9627,7 @@
         <v>44862</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9689,7 +9689,7 @@
         <v>45811.62408564815</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9751,7 +9751,7 @@
         <v>45888.47853009259</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9808,7 +9808,7 @@
         <v>45890.4027662037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9870,7 +9870,7 @@
         <v>45695</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9927,7 +9927,7 @@
         <v>45890</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>45890.37231481481</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>45811.81252314815</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>45111</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         <v>45813.42409722223</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>45240.98564814815</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>45895</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>45817</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10408,7 +10408,7 @@
         <v>45817</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10470,7 +10470,7 @@
         <v>45817.60616898148</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>45576</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>45817.55212962963</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>45819.42872685185</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10703,7 +10703,7 @@
         <v>45897.60113425926</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10765,7 +10765,7 @@
         <v>45819.43546296296</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10827,7 +10827,7 @@
         <v>45217</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>44469.61916666666</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>44235</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>45901</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
         <v>45222.48548611111</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         <v>45902.58972222222</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         <v>44728.4549537037</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11246,7 +11246,7 @@
         <v>44728</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>45902.43103009259</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         <v>45904.32818287037</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>44841</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11484,7 +11484,7 @@
         <v>45904.49546296296</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11541,7 +11541,7 @@
         <v>45904.33445601852</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11598,7 +11598,7 @@
         <v>45744.32628472222</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11655,7 +11655,7 @@
         <v>45258.3330787037</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11712,7 +11712,7 @@
         <v>45908.55577546296</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11774,7 +11774,7 @@
         <v>45824.42596064815</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11831,7 +11831,7 @@
         <v>44316.48511574074</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11888,7 +11888,7 @@
         <v>44316.49489583333</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11945,7 +11945,7 @@
         <v>45909.94302083334</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12002,7 +12002,7 @@
         <v>45826</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12059,7 +12059,7 @@
         <v>45909.93715277778</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12116,7 +12116,7 @@
         <v>45911.51048611111</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12173,7 +12173,7 @@
         <v>45912.60305555556</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12230,7 +12230,7 @@
         <v>45912</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12287,7 +12287,7 @@
         <v>45183.49864583334</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12349,7 +12349,7 @@
         <v>45915.67001157408</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12406,7 +12406,7 @@
         <v>45764</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12468,7 +12468,7 @@
         <v>45764</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12530,7 +12530,7 @@
         <v>45665.56862268518</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12592,7 +12592,7 @@
         <v>44820</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12649,7 +12649,7 @@
         <v>45531</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12711,7 +12711,7 @@
         <v>45646.73391203704</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
         <v>44594.55498842592</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12825,7 +12825,7 @@
         <v>45160.4325462963</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12882,7 +12882,7 @@
         <v>45833</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12939,7 +12939,7 @@
         <v>45833</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13001,7 +13001,7 @@
         <v>45832.68217592593</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13058,7 +13058,7 @@
         <v>45463.47873842593</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13115,7 +13115,7 @@
         <v>45833.41353009259</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>45832.62859953703</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13234,7 +13234,7 @@
         <v>45832.68709490741</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13291,7 +13291,7 @@
         <v>45832</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13348,7 +13348,7 @@
         <v>45666.56121527778</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>45833.5853125</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>45833</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>45833.5831712963</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>45666.70565972223</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>45833</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>45835.53105324074</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>45835.42917824074</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>45646</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13871,7 +13871,7 @@
         <v>45240.30758101852</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>45331</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>44811.51353009259</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14047,7 +14047,7 @@
         <v>45933.33965277778</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14104,7 +14104,7 @@
         <v>45254.30815972222</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14161,7 +14161,7 @@
         <v>45734.33065972223</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14218,7 +14218,7 @@
         <v>45933.34494212963</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         <v>45826</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>45932.36393518518</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14394,7 +14394,7 @@
         <v>45932.49101851852</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14451,7 +14451,7 @@
         <v>45936.66438657408</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14508,7 +14508,7 @@
         <v>45063</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14570,7 +14570,7 @@
         <v>45691.39211805556</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14627,7 +14627,7 @@
         <v>45840.3518287037</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14684,7 +14684,7 @@
         <v>45840</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14741,7 +14741,7 @@
         <v>45840</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>45840.39614583334</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14865,7 +14865,7 @@
         <v>44880.59405092592</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14927,7 +14927,7 @@
         <v>45938.57802083333</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14984,7 +14984,7 @@
         <v>45840.35265046296</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15061,7 +15061,7 @@
         <v>45937.42217592592</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15118,7 +15118,7 @@
         <v>45182.36759259259</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15175,7 +15175,7 @@
         <v>45939.64640046296</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15232,7 +15232,7 @@
         <v>45939.58782407407</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15294,7 +15294,7 @@
         <v>45939.64821759259</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15351,7 +15351,7 @@
         <v>45939.64255787037</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>45443.5037037037</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15470,7 +15470,7 @@
         <v>45940.43707175926</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15527,7 +15527,7 @@
         <v>45689.53123842592</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15584,7 +15584,7 @@
         <v>45945.63233796296</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15646,7 +15646,7 @@
         <v>45846.35042824074</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15703,7 +15703,7 @@
         <v>45516</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15760,7 +15760,7 @@
         <v>45527.36696759259</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
         <v>44798</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15879,7 +15879,7 @@
         <v>45912</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15936,7 +15936,7 @@
         <v>45846.32387731481</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15993,7 +15993,7 @@
         <v>45846.69233796297</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16050,7 +16050,7 @@
         <v>45846.34346064815</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16107,7 +16107,7 @@
         <v>45945.83503472222</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16164,7 +16164,7 @@
         <v>45214.84159722222</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16221,7 +16221,7 @@
         <v>45937</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16283,7 +16283,7 @@
         <v>45947.6353125</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16340,7 +16340,7 @@
         <v>45945.83003472222</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16397,7 +16397,7 @@
         <v>45937</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16459,7 +16459,7 @@
         <v>45890</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16516,7 +16516,7 @@
         <v>45350.31621527778</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16573,7 +16573,7 @@
         <v>45854.36267361111</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16630,7 +16630,7 @@
         <v>45756.78645833334</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16687,7 +16687,7 @@
         <v>45950.50633101852</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16749,7 +16749,7 @@
         <v>45860.73835648148</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>44881</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>45952</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16930,7 +16930,7 @@
         <v>45754.65806712963</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16987,7 +16987,7 @@
         <v>45813</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17044,7 +17044,7 @@
         <v>45953.60679398148</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17101,7 +17101,7 @@
         <v>45600.58436342593</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17163,7 +17163,7 @@
         <v>45623.58370370371</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17220,7 +17220,7 @@
         <v>45952.60009259259</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17277,7 +17277,7 @@
         <v>45520</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17334,7 +17334,7 @@
         <v>45169.66387731482</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17391,7 +17391,7 @@
         <v>45956.09799768519</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17453,7 +17453,7 @@
         <v>45956.11425925926</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         <v>45868.57556712963</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17577,7 +17577,7 @@
         <v>45533.45655092593</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17634,7 +17634,7 @@
         <v>45955.9987962963</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17696,7 +17696,7 @@
         <v>45955.96217592592</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17758,7 +17758,7 @@
         <v>45956.04900462963</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17820,7 +17820,7 @@
         <v>45954.41494212963</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
         <v>45954.04571759259</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17939,7 +17939,7 @@
         <v>45665</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17996,7 +17996,7 @@
         <v>44980.64003472222</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18058,7 +18058,7 @@
         <v>45874</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18115,7 +18115,7 @@
         <v>45453.61982638889</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18172,7 +18172,7 @@
         <v>44272</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18229,7 +18229,7 @@
         <v>45959</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18291,7 +18291,7 @@
         <v>45876.50083333333</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
         <v>45961.57829861111</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>45877.37292824074</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18467,7 +18467,7 @@
         <v>45876.50278935185</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18524,7 +18524,7 @@
         <v>45965</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18581,7 +18581,7 @@
         <v>45964.41689814815</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18643,7 +18643,7 @@
         <v>45965.36116898148</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18705,7 +18705,7 @@
         <v>45238.65434027778</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18767,7 +18767,7 @@
         <v>45965.69846064815</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>44970.44603009259</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18886,7 +18886,7 @@
         <v>45965.74467592593</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18948,7 +18948,7 @@
         <v>45966.56648148148</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19005,7 +19005,7 @@
         <v>45772.59885416667</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19062,7 +19062,7 @@
         <v>45882.65212962963</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>45967.40354166667</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>45440.64032407408</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         <v>45673.36819444445</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19300,7 +19300,7 @@
         <v>45882.63377314815</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19362,7 +19362,7 @@
         <v>45883.63190972222</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19424,7 +19424,7 @@
         <v>45646.85320601852</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19481,7 +19481,7 @@
         <v>45646.86575231481</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19538,7 +19538,7 @@
         <v>44972</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19595,7 +19595,7 @@
         <v>45973.61737268518</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19657,7 +19657,7 @@
         <v>45882.58366898148</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19714,7 +19714,7 @@
         <v>45532</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19771,7 +19771,7 @@
         <v>45972.61436342593</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19833,7 +19833,7 @@
         <v>45614</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19890,7 +19890,7 @@
         <v>45974.59010416667</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19947,7 +19947,7 @@
         <v>45772.59590277778</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20004,7 +20004,7 @@
         <v>45520</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         <v>45601.56724537037</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20118,7 +20118,7 @@
         <v>45754.66570601852</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20175,7 +20175,7 @@
         <v>45979</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20237,7 +20237,7 @@
         <v>45471.49597222222</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20294,7 +20294,7 @@
         <v>44980.64266203704</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20356,7 +20356,7 @@
         <v>45981.48138888889</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>45981.64387731482</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>45981.65017361111</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20532,7 +20532,7 @@
         <v>45985.65357638889</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20589,7 +20589,7 @@
         <v>44612</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20646,7 +20646,7 @@
         <v>45727</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20703,7 +20703,7 @@
         <v>45691.39052083333</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20760,7 +20760,7 @@
         <v>45986.62628472222</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>45987.46614583334</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20884,7 +20884,7 @@
         <v>45322</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20941,7 +20941,7 @@
         <v>45596.3786574074</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>45988.6047800926</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>45988.53334490741</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>45309</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>45639.71756944444</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>46031.31383101852</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21293,7 +21293,7 @@
         <v>45194</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21350,7 +21350,7 @@
         <v>45988.52559027778</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21407,7 +21407,7 @@
         <v>46030.45414351852</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21464,7 +21464,7 @@
         <v>45677.57335648148</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21521,7 +21521,7 @@
         <v>45988</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21583,7 +21583,7 @@
         <v>46035.36212962963</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21640,7 +21640,7 @@
         <v>45169.87157407407</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21697,7 +21697,7 @@
         <v>46033.80243055556</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>45579.37496527778</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21816,7 +21816,7 @@
         <v>45471.48064814815</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21873,7 +21873,7 @@
         <v>44509</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21935,7 +21935,7 @@
         <v>45712.64303240741</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21992,7 +21992,7 @@
         <v>45993.57144675926</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22049,7 +22049,7 @@
         <v>46034.59151620371</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22106,7 +22106,7 @@
         <v>45604.42420138889</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22163,7 +22163,7 @@
         <v>45993.59385416667</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22220,7 +22220,7 @@
         <v>45377.34111111111</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22277,7 +22277,7 @@
         <v>44966.57096064815</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22334,7 +22334,7 @@
         <v>46037.31042824074</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22391,7 +22391,7 @@
         <v>45994.56637731481</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22448,7 +22448,7 @@
         <v>46037.385625</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22505,7 +22505,7 @@
         <v>45754</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22567,7 +22567,7 @@
         <v>45331.49379629629</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22624,7 +22624,7 @@
         <v>46036.47221064815</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22681,7 +22681,7 @@
         <v>45481.30422453704</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22738,7 +22738,7 @@
         <v>46037.82216435186</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22795,7 +22795,7 @@
         <v>46036.46501157407</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22852,7 +22852,7 @@
         <v>46029</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22909,7 +22909,7 @@
         <v>46021</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22966,7 +22966,7 @@
         <v>44235.63366898148</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23023,7 +23023,7 @@
         <v>45995.58725694445</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23080,7 +23080,7 @@
         <v>45994.38174768518</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23137,7 +23137,7 @@
         <v>45457.62734953704</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23194,7 +23194,7 @@
         <v>46039.77504629629</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23251,7 +23251,7 @@
         <v>45002.38197916667</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
         <v>46021</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23370,7 +23370,7 @@
         <v>45996.38019675926</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>45418</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>46042.6171875</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>45614.58354166667</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23603,7 +23603,7 @@
         <v>46001.47554398148</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23665,7 +23665,7 @@
         <v>45714.32625</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>45617.54045138889</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         <v>45679</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23836,7 +23836,7 @@
         <v>46042.45342592592</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23893,7 +23893,7 @@
         <v>46043.74402777778</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23950,7 +23950,7 @@
         <v>45183.26203703704</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24007,7 +24007,7 @@
         <v>46042.33083333333</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24064,7 +24064,7 @@
         <v>46042.431875</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24121,7 +24121,7 @@
         <v>46042.45846064815</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24178,7 +24178,7 @@
         <v>45106.58868055556</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24240,7 +24240,7 @@
         <v>46044.44141203703</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24297,7 +24297,7 @@
         <v>44503</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24359,7 +24359,7 @@
         <v>45315.61605324074</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24416,7 +24416,7 @@
         <v>46002.4481712963</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24473,7 +24473,7 @@
         <v>46002.35988425926</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24530,7 +24530,7 @@
         <v>45589.62921296297</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24587,7 +24587,7 @@
         <v>45532</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24644,7 +24644,7 @@
         <v>46049.34185185185</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         <v>46049.42231481482</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24768,7 +24768,7 @@
         <v>44307</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24830,7 +24830,7 @@
         <v>46048.9335300926</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24887,7 +24887,7 @@
         <v>44960</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24944,7 +24944,7 @@
         <v>46048.56425925926</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25001,7 +25001,7 @@
         <v>46051.45114583334</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25058,7 +25058,7 @@
         <v>46009.45252314815</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25115,7 +25115,7 @@
         <v>45204.35577546297</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25172,7 +25172,7 @@
         <v>45085</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25229,7 +25229,7 @@
         <v>46050.40844907407</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25286,7 +25286,7 @@
         <v>45376.44659722222</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25343,7 +25343,7 @@
         <v>46051.59634259259</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25405,7 +25405,7 @@
         <v>46049</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>46051.42921296296</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>45737.48921296297</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25581,7 +25581,7 @@
         <v>46052.66626157407</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25638,7 +25638,7 @@
         <v>46034</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>46034</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25752,7 +25752,7 @@
         <v>46057.64628472222</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25809,7 +25809,7 @@
         <v>46058.51758101852</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25866,7 +25866,7 @@
         <v>44546</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25928,7 +25928,7 @@
         <v>44942</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25985,7 +25985,7 @@
         <v>45147.65657407408</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26042,7 +26042,7 @@
         <v>46058.59798611111</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26099,7 +26099,7 @@
         <v>46058.59936342593</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26156,7 +26156,7 @@
         <v>45187.34733796296</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26213,7 +26213,7 @@
         <v>46028.45001157407</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26270,7 +26270,7 @@
         <v>46058.58</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26327,7 +26327,7 @@
         <v>46058.58513888889</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26384,7 +26384,7 @@
         <v>45733.32369212963</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26441,7 +26441,7 @@
         <v>46059.58263888889</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26498,7 +26498,7 @@
         <v>45643.63615740741</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26560,7 +26560,7 @@
         <v>45166.59652777778</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26617,7 +26617,7 @@
         <v>45644.65783564815</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26674,7 +26674,7 @@
         <v>45174.5846875</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26736,7 +26736,7 @@
         <v>44739</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26798,7 +26798,7 @@
         <v>45363.86148148148</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26855,7 +26855,7 @@
         <v>45363.87252314815</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26912,7 +26912,7 @@
         <v>44869</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26969,7 +26969,7 @@
         <v>45539.7515625</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         <v>45749.55953703704</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27083,7 +27083,7 @@
         <v>44805</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27145,7 +27145,7 @@
         <v>45299</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27202,7 +27202,7 @@
         <v>45689.46016203704</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27259,7 +27259,7 @@
         <v>45689.51372685185</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27316,7 +27316,7 @@
         <v>45516.63180555555</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27373,7 +27373,7 @@
         <v>45631.48799768519</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27430,7 +27430,7 @@
         <v>45244.66481481482</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27487,7 +27487,7 @@
         <v>45617.52883101852</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27544,7 +27544,7 @@
         <v>44908</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27601,7 +27601,7 @@
         <v>45596.5975</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27663,7 +27663,7 @@
         <v>45247.61887731482</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27720,7 +27720,7 @@
         <v>45225.58869212963</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27782,7 +27782,7 @@
         <v>44461</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27839,7 +27839,7 @@
         <v>45418.31195601852</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27896,7 +27896,7 @@
         <v>45169</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27953,7 +27953,7 @@
         <v>44701</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28010,7 +28010,7 @@
         <v>45296.36752314815</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28067,7 +28067,7 @@
         <v>44336</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28129,7 +28129,7 @@
         <v>45575.47936342593</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28186,7 +28186,7 @@
         <v>45775.46444444444</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28243,7 +28243,7 @@
         <v>45754</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28305,7 +28305,7 @@
         <v>45008.82340277778</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28362,7 +28362,7 @@
         <v>45617.47939814815</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28419,7 +28419,7 @@
         <v>45448.42597222222</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28476,7 +28476,7 @@
         <v>45359.4921875</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28533,7 +28533,7 @@
         <v>45707.65648148148</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28590,7 +28590,7 @@
         <v>45735.62751157407</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28652,7 +28652,7 @@
         <v>44930.47913194444</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28709,7 +28709,7 @@
         <v>45265.67287037037</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28771,7 +28771,7 @@
         <v>45110</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28828,7 +28828,7 @@
         <v>45471.47335648148</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28885,7 +28885,7 @@
         <v>45677.63202546296</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28942,7 +28942,7 @@
         <v>44257</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28999,7 +28999,7 @@
         <v>45372</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29056,7 +29056,7 @@
         <v>45184.59045138889</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29113,7 +29113,7 @@
         <v>45082</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29175,7 +29175,7 @@
         <v>44867.38975694445</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29232,7 +29232,7 @@
         <v>44837</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29294,7 +29294,7 @@
         <v>45754.64412037037</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29351,7 +29351,7 @@
         <v>45754.65523148148</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29408,7 +29408,7 @@
         <v>44673</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29465,7 +29465,7 @@
         <v>45240.58174768519</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29522,7 +29522,7 @@
         <v>45519.65722222222</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29579,7 +29579,7 @@
         <v>45222.49092592593</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29641,7 +29641,7 @@
         <v>44855.65384259259</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29698,7 +29698,7 @@
         <v>45244.41140046297</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         <v>44909</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29812,7 +29812,7 @@
         <v>45630.72998842593</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29869,7 +29869,7 @@
         <v>45630.74299768519</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29926,7 +29926,7 @@
         <v>45331</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29983,7 +29983,7 @@
         <v>45254.62652777778</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30040,7 +30040,7 @@
         <v>45371</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30097,7 +30097,7 @@
         <v>44930.61575231481</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30154,7 +30154,7 @@
         <v>45425.56932870371</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30216,7 +30216,7 @@
         <v>45244</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30273,7 +30273,7 @@
         <v>45631.48559027778</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30330,7 +30330,7 @@
         <v>45160.43616898148</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30387,7 +30387,7 @@
         <v>45735.60324074074</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30449,7 +30449,7 @@
         <v>45513.28902777778</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30506,7 +30506,7 @@
         <v>45595.69030092593</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30563,7 +30563,7 @@
         <v>44960.50465277778</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30620,7 +30620,7 @@
         <v>45631.49017361111</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30677,7 +30677,7 @@
         <v>45440.31517361111</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30734,7 +30734,7 @@
         <v>45625.34310185185</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30796,7 +30796,7 @@
         <v>45247.5615625</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30853,7 +30853,7 @@
         <v>44931.36844907407</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30910,7 +30910,7 @@
         <v>45715.32804398148</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30967,7 +30967,7 @@
         <v>45588.595625</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31029,7 +31029,7 @@
         <v>45763.58126157407</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31086,7 +31086,7 @@
         <v>45169.86748842592</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31143,7 +31143,7 @@
         <v>45491.50755787037</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31200,7 +31200,7 @@
         <v>45672.69732638889</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31257,7 +31257,7 @@
         <v>45748.66989583334</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31314,7 +31314,7 @@
         <v>45762</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31376,7 +31376,7 @@
         <v>45722.6621875</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31433,7 +31433,7 @@
         <v>45700.38591435185</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31490,7 +31490,7 @@
         <v>45762</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31552,7 +31552,7 @@
         <v>45653</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31609,7 +31609,7 @@
         <v>44916</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31671,7 +31671,7 @@
         <v>45754.65130787037</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31728,7 +31728,7 @@
         <v>45680.33721064815</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31785,7 +31785,7 @@
         <v>45744.39063657408</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31842,7 +31842,7 @@
         <v>45582.55339120371</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31899,7 +31899,7 @@
         <v>45215.64871527778</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31956,7 +31956,7 @@
         <v>45215</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32013,7 +32013,7 @@
         <v>45776</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32075,7 +32075,7 @@
         <v>45776</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32137,7 +32137,7 @@
         <v>45783.40085648148</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32194,7 +32194,7 @@
         <v>45674.65028935186</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32251,7 +32251,7 @@
         <v>45783.45273148148</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32308,7 +32308,7 @@
         <v>45783</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32370,7 +32370,7 @@
         <v>44426</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32427,7 +32427,7 @@
         <v>45483.31819444444</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32484,7 +32484,7 @@
         <v>45518.63627314815</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32541,7 +32541,7 @@
         <v>45492</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32598,7 +32598,7 @@
         <v>44719</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32655,7 +32655,7 @@
         <v>45582</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32712,7 +32712,7 @@
         <v>45793.54155092593</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32769,7 +32769,7 @@
         <v>45793</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32831,7 +32831,7 @@
         <v>45688.47202546296</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32888,7 +32888,7 @@
         <v>45483.67493055556</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32950,7 +32950,7 @@
         <v>45531.56623842593</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>

--- a/Översikt VANSBRO.xlsx
+++ b/Översikt VANSBRO.xlsx
@@ -575,7 +575,7 @@
         <v>45492</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>44820</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         <v>45987</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>45880.60349537037</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
         <v>45727</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>45735</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         <v>46014.48791666667</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>46007.50496527777</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1407,7 +1407,7 @@
         <v>45833</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>45483.31681712963</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>45842</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>45576</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>45735</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>45735</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
         <v>45409.75594907408</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>44442</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         <v>45840</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>45516</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>45842</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>45726</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44790</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>45735.5975925926</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
         <v>46034.58902777778</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>45394.56071759259</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>44439</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         <v>44307</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
         <v>44460</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         <v>45839</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>45956.10560185185</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         <v>45982.39892361111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>45576</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>45247.33710648148</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>44462</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>44881.42980324074</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3727,7 +3727,7 @@
         <v>44308</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3784,7 +3784,7 @@
         <v>44453.41665509259</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3846,7 +3846,7 @@
         <v>44337</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>44753</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>44519</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>44830.49607638889</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>44249</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>44453.52461805556</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>44708</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>44519</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>44673</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>44739.6862962963</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>44742.58832175926</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>44386.4465162037</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>44790</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>44826</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>44880.61246527778</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>44672</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>44739</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         <v>44790.63685185185</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>44336.408125</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>44371.61636574074</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>44465.84288194445</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>44774</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>44504.38153935185</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
         <v>44614</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>44817.35511574074</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5326,7 +5326,7 @@
         <v>44414</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5388,7 +5388,7 @@
         <v>44790.64916666667</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5450,7 +5450,7 @@
         <v>44732</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5512,7 +5512,7 @@
         <v>44827.6090625</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5574,7 +5574,7 @@
         <v>44748.65480324074</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5631,7 +5631,7 @@
         <v>44446.30186342593</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5688,7 +5688,7 @@
         <v>44300.45302083333</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>44476</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>44477</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>44643</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>44734.32988425926</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5983,7 +5983,7 @@
         <v>44812.48827546297</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>44754.39405092593</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
         <v>44754.39853009259</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>44816.40621527778</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>45530.64337962963</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>45443.52902777777</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>45498.40660879629</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>44442</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6464,7 +6464,7 @@
         <v>45575</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>44957</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>45141.37741898148</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>44886</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>45617.4893287037</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>45322</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>45078</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>45726.58685185185</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>45194.64940972222</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>45455.60853009259</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>45594.3728125</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7121,7 +7121,7 @@
         <v>44826.57543981481</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>44791</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>45183.49590277778</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>45544.67094907408</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7364,7 +7364,7 @@
         <v>45621.60984953704</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         <v>44796.504375</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
         <v>45315.61822916667</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7540,7 +7540,7 @@
         <v>45637.44667824074</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>44648.63498842593</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>45689.54017361111</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7711,7 +7711,7 @@
         <v>45680.54168981482</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         <v>45189.83035879629</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7825,7 +7825,7 @@
         <v>45512.62424768518</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7882,7 +7882,7 @@
         <v>45798</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         <v>45771.34391203704</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7996,7 +7996,7 @@
         <v>45754.65372685185</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8053,7 +8053,7 @@
         <v>45754.66079861111</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>45377.34850694444</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>45803.33614583333</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8229,7 +8229,7 @@
         <v>44298.57814814815</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>45532</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         <v>45689.52416666667</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         <v>45603.54407407407</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8462,7 +8462,7 @@
         <v>45634.73024305556</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8519,7 +8519,7 @@
         <v>45800.49591435185</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         <v>45884.62741898148</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8638,7 +8638,7 @@
         <v>45530.66306712963</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8695,7 +8695,7 @@
         <v>44925</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>45807</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8814,7 +8814,7 @@
         <v>45807</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
         <v>45806.5102662037</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
         <v>45888.65284722222</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
         <v>45810.43638888889</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>45888.65797453704</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>45811.54238425926</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         <v>45811.54483796296</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         <v>45888.6600925926</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         <v>45810.4090625</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9342,7 +9342,7 @@
         <v>45811.51887731482</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9399,7 +9399,7 @@
         <v>45811.53903935185</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9456,7 +9456,7 @@
         <v>45551.65304398148</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>45888.71024305555</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9570,7 +9570,7 @@
         <v>45811.56743055556</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9627,7 +9627,7 @@
         <v>44862</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9689,7 +9689,7 @@
         <v>45811.62408564815</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9751,7 +9751,7 @@
         <v>45888.47853009259</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9808,7 +9808,7 @@
         <v>45890.4027662037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9870,7 +9870,7 @@
         <v>45695</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9927,7 +9927,7 @@
         <v>45890</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>45890.37231481481</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>45811.81252314815</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>45111</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         <v>45813.42409722223</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>45240.98564814815</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>45895</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>45817</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10408,7 +10408,7 @@
         <v>45817</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10470,7 +10470,7 @@
         <v>45817.60616898148</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>45576</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>45817.55212962963</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>45819.42872685185</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10703,7 +10703,7 @@
         <v>45897.60113425926</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10765,7 +10765,7 @@
         <v>45819.43546296296</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10827,7 +10827,7 @@
         <v>45217</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>44469.61916666666</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>44235</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>45901</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
         <v>45222.48548611111</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         <v>45902.58972222222</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         <v>44728.4549537037</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11246,7 +11246,7 @@
         <v>44728</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>45902.43103009259</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         <v>45904.32818287037</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>44841</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11484,7 +11484,7 @@
         <v>45904.49546296296</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11541,7 +11541,7 @@
         <v>45904.33445601852</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11598,7 +11598,7 @@
         <v>45744.32628472222</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11655,7 +11655,7 @@
         <v>45258.3330787037</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11712,7 +11712,7 @@
         <v>45908.55577546296</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11774,7 +11774,7 @@
         <v>45824.42596064815</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11831,7 +11831,7 @@
         <v>44316.48511574074</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11888,7 +11888,7 @@
         <v>44316.49489583333</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11945,7 +11945,7 @@
         <v>45909.94302083334</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12002,7 +12002,7 @@
         <v>45826</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12059,7 +12059,7 @@
         <v>45909.93715277778</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12116,7 +12116,7 @@
         <v>45911.51048611111</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12173,7 +12173,7 @@
         <v>45912.60305555556</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12230,7 +12230,7 @@
         <v>45912</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12287,7 +12287,7 @@
         <v>45183.49864583334</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12349,7 +12349,7 @@
         <v>45915.67001157408</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12406,7 +12406,7 @@
         <v>45764</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12468,7 +12468,7 @@
         <v>45764</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12530,7 +12530,7 @@
         <v>45665.56862268518</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12592,7 +12592,7 @@
         <v>44820</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12649,7 +12649,7 @@
         <v>45531</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12711,7 +12711,7 @@
         <v>45646.73391203704</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
         <v>44594.55498842592</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12825,7 +12825,7 @@
         <v>45160.4325462963</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12882,7 +12882,7 @@
         <v>45833</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12939,7 +12939,7 @@
         <v>45833</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13001,7 +13001,7 @@
         <v>45832.68217592593</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13058,7 +13058,7 @@
         <v>45463.47873842593</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13115,7 +13115,7 @@
         <v>45833.41353009259</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>45832.62859953703</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13234,7 +13234,7 @@
         <v>45832.68709490741</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13291,7 +13291,7 @@
         <v>45832</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13348,7 +13348,7 @@
         <v>45666.56121527778</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>45833.5853125</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>45833</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>45833.5831712963</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>45666.70565972223</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>45833</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>45835.53105324074</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>45835.42917824074</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>45646</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13871,7 +13871,7 @@
         <v>45240.30758101852</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>45331</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>44811.51353009259</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14047,7 +14047,7 @@
         <v>45933.33965277778</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14104,7 +14104,7 @@
         <v>45254.30815972222</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14161,7 +14161,7 @@
         <v>45734.33065972223</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14218,7 +14218,7 @@
         <v>45933.34494212963</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         <v>45826</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>45932.36393518518</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14394,7 +14394,7 @@
         <v>45932.49101851852</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14451,7 +14451,7 @@
         <v>45936.66438657408</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14508,7 +14508,7 @@
         <v>45063</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14570,7 +14570,7 @@
         <v>45691.39211805556</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14627,7 +14627,7 @@
         <v>45840.3518287037</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14684,7 +14684,7 @@
         <v>45840</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14741,7 +14741,7 @@
         <v>45840</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>45840.39614583334</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14865,7 +14865,7 @@
         <v>44880.59405092592</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14927,7 +14927,7 @@
         <v>45938.57802083333</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14984,7 +14984,7 @@
         <v>45840.35265046296</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15061,7 +15061,7 @@
         <v>45937.42217592592</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15118,7 +15118,7 @@
         <v>45182.36759259259</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15175,7 +15175,7 @@
         <v>45939.64640046296</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15232,7 +15232,7 @@
         <v>45939.58782407407</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15294,7 +15294,7 @@
         <v>45939.64821759259</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15351,7 +15351,7 @@
         <v>45939.64255787037</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>45443.5037037037</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15470,7 +15470,7 @@
         <v>45940.43707175926</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15527,7 +15527,7 @@
         <v>45689.53123842592</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15584,7 +15584,7 @@
         <v>45945.63233796296</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15646,7 +15646,7 @@
         <v>45846.35042824074</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15703,7 +15703,7 @@
         <v>45516</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15760,7 +15760,7 @@
         <v>45527.36696759259</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
         <v>44798</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15879,7 +15879,7 @@
         <v>45912</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15936,7 +15936,7 @@
         <v>45846.32387731481</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15993,7 +15993,7 @@
         <v>45846.69233796297</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16050,7 +16050,7 @@
         <v>45846.34346064815</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16107,7 +16107,7 @@
         <v>45945.83503472222</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16164,7 +16164,7 @@
         <v>45214.84159722222</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16221,7 +16221,7 @@
         <v>45937</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16283,7 +16283,7 @@
         <v>45947.6353125</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16340,7 +16340,7 @@
         <v>45945.83003472222</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16397,7 +16397,7 @@
         <v>45937</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16459,7 +16459,7 @@
         <v>45890</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16516,7 +16516,7 @@
         <v>45350.31621527778</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16573,7 +16573,7 @@
         <v>45854.36267361111</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16630,7 +16630,7 @@
         <v>45756.78645833334</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16687,7 +16687,7 @@
         <v>45950.50633101852</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16749,7 +16749,7 @@
         <v>45860.73835648148</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>44881</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>45952</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16930,7 +16930,7 @@
         <v>45754.65806712963</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16987,7 +16987,7 @@
         <v>45813</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17044,7 +17044,7 @@
         <v>45953.60679398148</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17101,7 +17101,7 @@
         <v>45600.58436342593</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17163,7 +17163,7 @@
         <v>45623.58370370371</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17220,7 +17220,7 @@
         <v>45952.60009259259</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17277,7 +17277,7 @@
         <v>45520</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17334,7 +17334,7 @@
         <v>45169.66387731482</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17391,7 +17391,7 @@
         <v>45956.09799768519</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17453,7 +17453,7 @@
         <v>45956.11425925926</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         <v>45868.57556712963</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17577,7 +17577,7 @@
         <v>45533.45655092593</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17634,7 +17634,7 @@
         <v>45955.9987962963</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17696,7 +17696,7 @@
         <v>45955.96217592592</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17758,7 +17758,7 @@
         <v>45956.04900462963</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17820,7 +17820,7 @@
         <v>45954.41494212963</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
         <v>45954.04571759259</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17939,7 +17939,7 @@
         <v>45665</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17996,7 +17996,7 @@
         <v>44980.64003472222</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18058,7 +18058,7 @@
         <v>45874</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18115,7 +18115,7 @@
         <v>45453.61982638889</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18172,7 +18172,7 @@
         <v>44272</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18229,7 +18229,7 @@
         <v>45959</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18291,7 +18291,7 @@
         <v>45876.50083333333</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
         <v>45961.57829861111</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>45877.37292824074</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18467,7 +18467,7 @@
         <v>45876.50278935185</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18524,7 +18524,7 @@
         <v>45965</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18581,7 +18581,7 @@
         <v>45964.41689814815</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18643,7 +18643,7 @@
         <v>45965.36116898148</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18705,7 +18705,7 @@
         <v>45238.65434027778</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18767,7 +18767,7 @@
         <v>45965.69846064815</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>44970.44603009259</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18886,7 +18886,7 @@
         <v>45965.74467592593</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18948,7 +18948,7 @@
         <v>45966.56648148148</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19005,7 +19005,7 @@
         <v>45772.59885416667</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19062,7 +19062,7 @@
         <v>45882.65212962963</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>45967.40354166667</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>45440.64032407408</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         <v>45673.36819444445</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19300,7 +19300,7 @@
         <v>45882.63377314815</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19362,7 +19362,7 @@
         <v>45883.63190972222</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19424,7 +19424,7 @@
         <v>45646.85320601852</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19481,7 +19481,7 @@
         <v>45646.86575231481</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19538,7 +19538,7 @@
         <v>44972</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19595,7 +19595,7 @@
         <v>45973.61737268518</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19657,7 +19657,7 @@
         <v>45882.58366898148</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19714,7 +19714,7 @@
         <v>45532</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19771,7 +19771,7 @@
         <v>45972.61436342593</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19833,7 +19833,7 @@
         <v>45614</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19890,7 +19890,7 @@
         <v>45974.59010416667</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19947,7 +19947,7 @@
         <v>45772.59590277778</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20004,7 +20004,7 @@
         <v>45520</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         <v>45601.56724537037</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20118,7 +20118,7 @@
         <v>45754.66570601852</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20175,7 +20175,7 @@
         <v>45979</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20237,7 +20237,7 @@
         <v>45471.49597222222</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20294,7 +20294,7 @@
         <v>44980.64266203704</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20356,7 +20356,7 @@
         <v>45981.48138888889</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>45981.64387731482</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>45981.65017361111</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20532,7 +20532,7 @@
         <v>45985.65357638889</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20589,7 +20589,7 @@
         <v>44612</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20646,7 +20646,7 @@
         <v>45727</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20703,7 +20703,7 @@
         <v>45691.39052083333</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20760,7 +20760,7 @@
         <v>45986.62628472222</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>45987.46614583334</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20884,7 +20884,7 @@
         <v>45322</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20941,7 +20941,7 @@
         <v>45596.3786574074</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>45988.6047800926</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>45988.53334490741</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>45309</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>45639.71756944444</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>46031.31383101852</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21293,7 +21293,7 @@
         <v>45194</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21350,7 +21350,7 @@
         <v>45988.52559027778</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21407,7 +21407,7 @@
         <v>46030.45414351852</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21464,7 +21464,7 @@
         <v>45677.57335648148</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21521,7 +21521,7 @@
         <v>45988</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21583,7 +21583,7 @@
         <v>46035.36212962963</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21640,7 +21640,7 @@
         <v>45169.87157407407</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21697,7 +21697,7 @@
         <v>46033.80243055556</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>45579.37496527778</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21816,7 +21816,7 @@
         <v>45471.48064814815</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21873,7 +21873,7 @@
         <v>44509</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21935,7 +21935,7 @@
         <v>45712.64303240741</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21992,7 +21992,7 @@
         <v>45993.57144675926</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22049,7 +22049,7 @@
         <v>46034.59151620371</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22106,7 +22106,7 @@
         <v>45604.42420138889</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22163,7 +22163,7 @@
         <v>45993.59385416667</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22220,7 +22220,7 @@
         <v>45377.34111111111</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22277,7 +22277,7 @@
         <v>44966.57096064815</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22334,7 +22334,7 @@
         <v>46037.31042824074</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22391,7 +22391,7 @@
         <v>45994.56637731481</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22448,7 +22448,7 @@
         <v>46037.385625</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22505,7 +22505,7 @@
         <v>45754</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22567,7 +22567,7 @@
         <v>45331.49379629629</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22624,7 +22624,7 @@
         <v>46036.47221064815</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22681,7 +22681,7 @@
         <v>45481.30422453704</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22738,7 +22738,7 @@
         <v>46037.82216435186</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22795,7 +22795,7 @@
         <v>46036.46501157407</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22852,7 +22852,7 @@
         <v>46029</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22909,7 +22909,7 @@
         <v>46021</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22966,7 +22966,7 @@
         <v>44235.63366898148</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23023,7 +23023,7 @@
         <v>45995.58725694445</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23080,7 +23080,7 @@
         <v>45994.38174768518</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23137,7 +23137,7 @@
         <v>45457.62734953704</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23194,7 +23194,7 @@
         <v>46039.77504629629</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23251,7 +23251,7 @@
         <v>45002.38197916667</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
         <v>46021</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23370,7 +23370,7 @@
         <v>45996.38019675926</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>45418</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>46042.6171875</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>45614.58354166667</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23603,7 +23603,7 @@
         <v>46001.47554398148</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23665,7 +23665,7 @@
         <v>45714.32625</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>45617.54045138889</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         <v>45679</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23836,7 +23836,7 @@
         <v>46042.45342592592</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23893,7 +23893,7 @@
         <v>46043.74402777778</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23950,7 +23950,7 @@
         <v>45183.26203703704</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24007,7 +24007,7 @@
         <v>46042.33083333333</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24064,7 +24064,7 @@
         <v>46042.431875</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24121,7 +24121,7 @@
         <v>46042.45846064815</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24178,7 +24178,7 @@
         <v>45106.58868055556</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24240,7 +24240,7 @@
         <v>46044.44141203703</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24297,7 +24297,7 @@
         <v>44503</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24359,7 +24359,7 @@
         <v>45315.61605324074</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24416,7 +24416,7 @@
         <v>46002.4481712963</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24473,7 +24473,7 @@
         <v>46002.35988425926</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24530,7 +24530,7 @@
         <v>45589.62921296297</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24587,7 +24587,7 @@
         <v>45532</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24644,7 +24644,7 @@
         <v>46049.34185185185</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         <v>46049.42231481482</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24768,7 +24768,7 @@
         <v>44307</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24830,7 +24830,7 @@
         <v>46048.9335300926</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24887,7 +24887,7 @@
         <v>44960</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24944,7 +24944,7 @@
         <v>46048.56425925926</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25001,7 +25001,7 @@
         <v>46051.45114583334</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25058,7 +25058,7 @@
         <v>46009.45252314815</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25115,7 +25115,7 @@
         <v>45204.35577546297</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25172,7 +25172,7 @@
         <v>45085</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25229,7 +25229,7 @@
         <v>46050.40844907407</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25286,7 +25286,7 @@
         <v>45376.44659722222</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25343,7 +25343,7 @@
         <v>46051.59634259259</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25405,7 +25405,7 @@
         <v>46049</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>46051.42921296296</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>45737.48921296297</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25581,7 +25581,7 @@
         <v>46052.66626157407</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25638,7 +25638,7 @@
         <v>46034</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>46034</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25752,7 +25752,7 @@
         <v>46057.64628472222</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25809,7 +25809,7 @@
         <v>46058.51758101852</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25866,7 +25866,7 @@
         <v>44546</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25928,7 +25928,7 @@
         <v>44942</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25985,7 +25985,7 @@
         <v>45147.65657407408</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26042,7 +26042,7 @@
         <v>46058.59798611111</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26099,7 +26099,7 @@
         <v>46058.59936342593</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26156,7 +26156,7 @@
         <v>45187.34733796296</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26213,7 +26213,7 @@
         <v>46028.45001157407</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26270,7 +26270,7 @@
         <v>46058.58</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26327,7 +26327,7 @@
         <v>46058.58513888889</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26384,7 +26384,7 @@
         <v>45733.32369212963</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26441,7 +26441,7 @@
         <v>46059.58263888889</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26498,7 +26498,7 @@
         <v>45643.63615740741</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26560,7 +26560,7 @@
         <v>45166.59652777778</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26617,7 +26617,7 @@
         <v>45644.65783564815</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26674,7 +26674,7 @@
         <v>45174.5846875</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26736,7 +26736,7 @@
         <v>44739</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26798,7 +26798,7 @@
         <v>45363.86148148148</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26855,7 +26855,7 @@
         <v>45363.87252314815</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26912,7 +26912,7 @@
         <v>44869</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26969,7 +26969,7 @@
         <v>45539.7515625</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         <v>45749.55953703704</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27083,7 +27083,7 @@
         <v>44805</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27145,7 +27145,7 @@
         <v>45299</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27202,7 +27202,7 @@
         <v>45689.46016203704</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27259,7 +27259,7 @@
         <v>45689.51372685185</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27316,7 +27316,7 @@
         <v>45516.63180555555</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27373,7 +27373,7 @@
         <v>45631.48799768519</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27430,7 +27430,7 @@
         <v>45244.66481481482</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27487,7 +27487,7 @@
         <v>45617.52883101852</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27544,7 +27544,7 @@
         <v>44908</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27601,7 +27601,7 @@
         <v>45596.5975</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27663,7 +27663,7 @@
         <v>45247.61887731482</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27720,7 +27720,7 @@
         <v>45225.58869212963</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27782,7 +27782,7 @@
         <v>44461</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27839,7 +27839,7 @@
         <v>45418.31195601852</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27896,7 +27896,7 @@
         <v>45169</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27953,7 +27953,7 @@
         <v>44701</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28010,7 +28010,7 @@
         <v>45296.36752314815</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28067,7 +28067,7 @@
         <v>44336</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28129,7 +28129,7 @@
         <v>45575.47936342593</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28186,7 +28186,7 @@
         <v>45775.46444444444</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28243,7 +28243,7 @@
         <v>45754</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28305,7 +28305,7 @@
         <v>45008.82340277778</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28362,7 +28362,7 @@
         <v>45617.47939814815</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28419,7 +28419,7 @@
         <v>45448.42597222222</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28476,7 +28476,7 @@
         <v>45359.4921875</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28533,7 +28533,7 @@
         <v>45707.65648148148</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28590,7 +28590,7 @@
         <v>45735.62751157407</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28652,7 +28652,7 @@
         <v>44930.47913194444</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28709,7 +28709,7 @@
         <v>45265.67287037037</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28771,7 +28771,7 @@
         <v>45110</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28828,7 +28828,7 @@
         <v>45471.47335648148</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28885,7 +28885,7 @@
         <v>45677.63202546296</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28942,7 +28942,7 @@
         <v>44257</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28999,7 +28999,7 @@
         <v>45372</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29056,7 +29056,7 @@
         <v>45184.59045138889</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29113,7 +29113,7 @@
         <v>45082</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29175,7 +29175,7 @@
         <v>44867.38975694445</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29232,7 +29232,7 @@
         <v>44837</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29294,7 +29294,7 @@
         <v>45754.64412037037</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29351,7 +29351,7 @@
         <v>45754.65523148148</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29408,7 +29408,7 @@
         <v>44673</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29465,7 +29465,7 @@
         <v>45240.58174768519</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29522,7 +29522,7 @@
         <v>45519.65722222222</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29579,7 +29579,7 @@
         <v>45222.49092592593</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29641,7 +29641,7 @@
         <v>44855.65384259259</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29698,7 +29698,7 @@
         <v>45244.41140046297</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         <v>44909</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29812,7 +29812,7 @@
         <v>45630.72998842593</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29869,7 +29869,7 @@
         <v>45630.74299768519</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29926,7 +29926,7 @@
         <v>45331</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29983,7 +29983,7 @@
         <v>45254.62652777778</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30040,7 +30040,7 @@
         <v>45371</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30097,7 +30097,7 @@
         <v>44930.61575231481</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30154,7 +30154,7 @@
         <v>45425.56932870371</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30216,7 +30216,7 @@
         <v>45244</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30273,7 +30273,7 @@
         <v>45631.48559027778</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30330,7 +30330,7 @@
         <v>45160.43616898148</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30387,7 +30387,7 @@
         <v>45735.60324074074</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30449,7 +30449,7 @@
         <v>45513.28902777778</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30506,7 +30506,7 @@
         <v>45595.69030092593</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30563,7 +30563,7 @@
         <v>44960.50465277778</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30620,7 +30620,7 @@
         <v>45631.49017361111</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30677,7 +30677,7 @@
         <v>45440.31517361111</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30734,7 +30734,7 @@
         <v>45625.34310185185</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30796,7 +30796,7 @@
         <v>45247.5615625</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30853,7 +30853,7 @@
         <v>44931.36844907407</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30910,7 +30910,7 @@
         <v>45715.32804398148</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30967,7 +30967,7 @@
         <v>45588.595625</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31029,7 +31029,7 @@
         <v>45763.58126157407</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31086,7 +31086,7 @@
         <v>45169.86748842592</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31143,7 +31143,7 @@
         <v>45491.50755787037</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31200,7 +31200,7 @@
         <v>45672.69732638889</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31257,7 +31257,7 @@
         <v>45748.66989583334</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31314,7 +31314,7 @@
         <v>45762</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31376,7 +31376,7 @@
         <v>45722.6621875</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31433,7 +31433,7 @@
         <v>45700.38591435185</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31490,7 +31490,7 @@
         <v>45762</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31552,7 +31552,7 @@
         <v>45653</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31609,7 +31609,7 @@
         <v>44916</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31671,7 +31671,7 @@
         <v>45754.65130787037</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31728,7 +31728,7 @@
         <v>45680.33721064815</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31785,7 +31785,7 @@
         <v>45744.39063657408</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31842,7 +31842,7 @@
         <v>45582.55339120371</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31899,7 +31899,7 @@
         <v>45215.64871527778</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31956,7 +31956,7 @@
         <v>45215</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32013,7 +32013,7 @@
         <v>45776</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32075,7 +32075,7 @@
         <v>45776</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32137,7 +32137,7 @@
         <v>45783.40085648148</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32194,7 +32194,7 @@
         <v>45674.65028935186</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32251,7 +32251,7 @@
         <v>45783.45273148148</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32308,7 +32308,7 @@
         <v>45783</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32370,7 +32370,7 @@
         <v>44426</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32427,7 +32427,7 @@
         <v>45483.31819444444</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32484,7 +32484,7 @@
         <v>45518.63627314815</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32541,7 +32541,7 @@
         <v>45492</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32598,7 +32598,7 @@
         <v>44719</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32655,7 +32655,7 @@
         <v>45582</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32712,7 +32712,7 @@
         <v>45793.54155092593</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32769,7 +32769,7 @@
         <v>45793</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32831,7 +32831,7 @@
         <v>45688.47202546296</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32888,7 +32888,7 @@
         <v>45483.67493055556</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32950,7 +32950,7 @@
         <v>45531.56623842593</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>

--- a/Översikt VANSBRO.xlsx
+++ b/Översikt VANSBRO.xlsx
@@ -575,7 +575,7 @@
         <v>45492</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>44820</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         <v>45987</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>45880.60349537037</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
         <v>45727</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>45735</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         <v>46014.48791666667</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>46007.50496527777</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1407,7 +1407,7 @@
         <v>45833</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>45483.31681712963</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>45842</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>45576</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>45735</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>45735</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
         <v>45409.75594907408</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>44442</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         <v>45840</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>45516</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>45842</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>45726</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44790</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>45735.5975925926</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
         <v>46034.58902777778</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>45394.56071759259</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>44439</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         <v>44307</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
         <v>44460</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         <v>45839</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>45956.10560185185</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         <v>45982.39892361111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>45576</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>45247.33710648148</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>44462</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>44881.42980324074</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3727,7 +3727,7 @@
         <v>44308</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3784,7 +3784,7 @@
         <v>44453.41665509259</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3846,7 +3846,7 @@
         <v>44337</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>44753</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>44519</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>44830.49607638889</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>44249</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>44453.52461805556</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>44519</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>44708</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>44673</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>44739.6862962963</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>44742.58832175926</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>44386.4465162037</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>44790</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>44880.61246527778</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>44826</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>44672</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>44739</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         <v>44790.63685185185</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>44336.408125</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>44371.61636574074</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>44465.84288194445</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>44774</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>44504.38153935185</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
         <v>44614</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>44817.35511574074</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5326,7 +5326,7 @@
         <v>44414</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5388,7 +5388,7 @@
         <v>44790.64916666667</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5450,7 +5450,7 @@
         <v>44732</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5512,7 +5512,7 @@
         <v>44827.6090625</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5574,7 +5574,7 @@
         <v>44748.65480324074</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5631,7 +5631,7 @@
         <v>44446.30186342593</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5688,7 +5688,7 @@
         <v>44300.45302083333</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>44476</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>44477</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>44643</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>44734.32988425926</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5983,7 +5983,7 @@
         <v>44812.48827546297</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>44754.39405092593</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
         <v>44754.39853009259</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>44816.40621527778</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>45498.40660879629</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>44442</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>45530.64337962963</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>45575</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6464,7 +6464,7 @@
         <v>44957</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>45443.52902777777</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>45141.37741898148</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>45617.4893287037</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6712,7 +6712,7 @@
         <v>45078</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>45322</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>45726.58685185185</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>45194.64940972222</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>44886</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>45594.3728125</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>45455.60853009259</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7121,7 +7121,7 @@
         <v>44791</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
         <v>44826.57543981481</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>45183.49590277778</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>45544.67094907408</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7364,7 +7364,7 @@
         <v>45621.60984953704</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         <v>44796.504375</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
         <v>45315.61822916667</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7540,7 +7540,7 @@
         <v>45637.44667824074</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>44648.63498842593</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>45689.54017361111</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7711,7 +7711,7 @@
         <v>45680.54168981482</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         <v>45512.62424768518</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7825,7 +7825,7 @@
         <v>45189.83035879629</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7882,7 +7882,7 @@
         <v>45754.65372685185</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         <v>45754.66079861111</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7996,7 +7996,7 @@
         <v>45377.34850694444</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8053,7 +8053,7 @@
         <v>45771.34391203704</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>44298.57814814815</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8172,7 +8172,7 @@
         <v>45689.52416666667</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8229,7 +8229,7 @@
         <v>45603.54407407407</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8286,7 +8286,7 @@
         <v>45634.73024305556</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>45530.66306712963</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>44925</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8462,7 +8462,7 @@
         <v>45111</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8519,7 +8519,7 @@
         <v>45817</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8581,7 +8581,7 @@
         <v>45817.60616898148</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8638,7 +8638,7 @@
         <v>45240.98564814815</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8695,7 +8695,7 @@
         <v>45817.55212962963</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8752,7 +8752,7 @@
         <v>45819.42872685185</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8814,7 +8814,7 @@
         <v>44862</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>45576</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
         <v>45532</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
         <v>45819.43546296296</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>45884.62741898148</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9114,7 +9114,7 @@
         <v>45217</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9176,7 +9176,7 @@
         <v>44469.61916666666</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9233,7 +9233,7 @@
         <v>45888.65284722222</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9290,7 +9290,7 @@
         <v>45888.65797453704</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9347,7 +9347,7 @@
         <v>45888.6600925926</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9404,7 +9404,7 @@
         <v>45222.48548611111</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9466,7 +9466,7 @@
         <v>44728.4549537037</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9528,7 +9528,7 @@
         <v>44728</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9590,7 +9590,7 @@
         <v>45551.65304398148</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9647,7 +9647,7 @@
         <v>45888.71024305555</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         <v>45824.42596064815</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>45888.47853009259</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9818,7 +9818,7 @@
         <v>45826</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>45890.4027662037</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>44841</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9999,7 +9999,7 @@
         <v>45890</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10061,7 +10061,7 @@
         <v>45890.37231481481</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10123,7 +10123,7 @@
         <v>45895</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>45744.32628472222</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>45258.3330787037</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>44316.48511574074</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10356,7 +10356,7 @@
         <v>44316.49489583333</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         <v>45833</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10470,7 +10470,7 @@
         <v>45833</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>45832.68217592593</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>45897.60113425926</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>45833.41353009259</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>45832.62859953703</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         <v>45183.49864583334</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>45832.68709490741</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>45832</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>45764</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>45764</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>45833.5853125</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         <v>45833</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         <v>45833.5831712963</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11241,7 +11241,7 @@
         <v>45833</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11298,7 +11298,7 @@
         <v>45901</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11360,7 +11360,7 @@
         <v>45665.56862268518</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>45835.53105324074</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11484,7 +11484,7 @@
         <v>45835.42917824074</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11541,7 +11541,7 @@
         <v>44820</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11598,7 +11598,7 @@
         <v>45902.58972222222</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11655,7 +11655,7 @@
         <v>45902.43103009259</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11712,7 +11712,7 @@
         <v>45531</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11774,7 +11774,7 @@
         <v>45646.73391203704</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11831,7 +11831,7 @@
         <v>44594.55498842592</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11888,7 +11888,7 @@
         <v>45904.32818287037</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11945,7 +11945,7 @@
         <v>45904.49546296296</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12002,7 +12002,7 @@
         <v>45904.33445601852</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12059,7 +12059,7 @@
         <v>45463.47873842593</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12116,7 +12116,7 @@
         <v>45840.3518287037</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12173,7 +12173,7 @@
         <v>45840</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12230,7 +12230,7 @@
         <v>45840</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12292,7 +12292,7 @@
         <v>45840.39614583334</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12354,7 +12354,7 @@
         <v>45666.56121527778</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12416,7 +12416,7 @@
         <v>45840.35265046296</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>45908.55577546296</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12555,7 +12555,7 @@
         <v>45666.70565972223</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12612,7 +12612,7 @@
         <v>45909.94302083334</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12669,7 +12669,7 @@
         <v>45909.93715277778</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12726,7 +12726,7 @@
         <v>45911.51048611111</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12783,7 +12783,7 @@
         <v>45912.60305555556</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12840,7 +12840,7 @@
         <v>45912</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12897,7 +12897,7 @@
         <v>45915.67001157408</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12954,7 +12954,7 @@
         <v>45846.35042824074</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13011,7 +13011,7 @@
         <v>45846.32387731481</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>45846.69233796297</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>45846.34346064815</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>45646</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>45240.30758101852</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
         <v>45890</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>45331</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44811.51353009259</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>45254.30815972222</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>45160.4325462963</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>45854.36267361111</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>45734.33065972223</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>45756.78645833334</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>45860.73835648148</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13819,7 +13819,7 @@
         <v>45063</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13881,7 +13881,7 @@
         <v>45691.39211805556</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>45754.65806712963</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>44880.59405092592</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14057,7 +14057,7 @@
         <v>45813</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14114,7 +14114,7 @@
         <v>45182.36759259259</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>45868.57556712963</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>45443.5037037037</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14295,7 +14295,7 @@
         <v>45689.53123842592</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14352,7 +14352,7 @@
         <v>45874</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14409,7 +14409,7 @@
         <v>45516</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>44272</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14523,7 +14523,7 @@
         <v>45527.36696759259</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14580,7 +14580,7 @@
         <v>44798</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14642,7 +14642,7 @@
         <v>45933.33965277778</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14699,7 +14699,7 @@
         <v>45876.50083333333</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>45877.37292824074</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14818,7 +14818,7 @@
         <v>45933.34494212963</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14875,7 +14875,7 @@
         <v>45876.50278935185</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>45826</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14994,7 +14994,7 @@
         <v>45214.84159722222</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15051,7 +15051,7 @@
         <v>45932.36393518518</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15108,7 +15108,7 @@
         <v>45932.49101851852</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         <v>45936.66438657408</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15222,7 +15222,7 @@
         <v>45350.31621527778</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15279,7 +15279,7 @@
         <v>45882.65212962963</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15341,7 +15341,7 @@
         <v>45882.63377314815</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15403,7 +15403,7 @@
         <v>45883.63190972222</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>45938.57802083333</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>45882.58366898148</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15579,7 +15579,7 @@
         <v>45532</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>45937.42217592592</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15693,7 +15693,7 @@
         <v>44881</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15750,7 +15750,7 @@
         <v>45600.58436342593</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15812,7 +15812,7 @@
         <v>45623.58370370371</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15869,7 +15869,7 @@
         <v>45939.64640046296</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15926,7 +15926,7 @@
         <v>45939.58782407407</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15988,7 +15988,7 @@
         <v>45939.64821759259</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
         <v>45520</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         <v>45939.64255787037</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>45169.66387731482</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>45940.43707175926</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16273,7 +16273,7 @@
         <v>45533.45655092593</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         <v>45945.63233796296</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>45665</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>45912</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16506,7 +16506,7 @@
         <v>44980.64003472222</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16568,7 +16568,7 @@
         <v>45453.61982638889</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16625,7 +16625,7 @@
         <v>45945.83503472222</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16682,7 +16682,7 @@
         <v>45937</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16744,7 +16744,7 @@
         <v>45947.6353125</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>45945.83003472222</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16858,7 +16858,7 @@
         <v>45937</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16920,7 +16920,7 @@
         <v>45950.50633101852</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>45952</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17044,7 +17044,7 @@
         <v>45953.60679398148</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17101,7 +17101,7 @@
         <v>45952.60009259259</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17158,7 +17158,7 @@
         <v>45238.65434027778</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17220,7 +17220,7 @@
         <v>44970.44603009259</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17277,7 +17277,7 @@
         <v>45956.09799768519</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17339,7 +17339,7 @@
         <v>45956.11425925926</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17401,7 +17401,7 @@
         <v>45772.59885416667</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17458,7 +17458,7 @@
         <v>45955.9987962963</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17520,7 +17520,7 @@
         <v>45955.96217592592</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17582,7 +17582,7 @@
         <v>45956.04900462963</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17644,7 +17644,7 @@
         <v>45954.41494212963</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17701,7 +17701,7 @@
         <v>45954.04571759259</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
         <v>45440.64032407408</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17825,7 +17825,7 @@
         <v>45673.36819444445</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17882,7 +17882,7 @@
         <v>45646.85320601852</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17939,7 +17939,7 @@
         <v>45646.86575231481</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17996,7 +17996,7 @@
         <v>45959</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18058,7 +18058,7 @@
         <v>44972</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18115,7 +18115,7 @@
         <v>45961.57829861111</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18172,7 +18172,7 @@
         <v>45614</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18229,7 +18229,7 @@
         <v>45772.59590277778</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>45520</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18343,7 +18343,7 @@
         <v>45965</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18400,7 +18400,7 @@
         <v>45964.41689814815</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18462,7 +18462,7 @@
         <v>45601.56724537037</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>45965.36116898148</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18581,7 +18581,7 @@
         <v>45965.69846064815</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18643,7 +18643,7 @@
         <v>45965.74467592593</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18705,7 +18705,7 @@
         <v>45754.66570601852</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18762,7 +18762,7 @@
         <v>45966.56648148148</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18819,7 +18819,7 @@
         <v>45471.49597222222</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18876,7 +18876,7 @@
         <v>45967.40354166667</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18933,7 +18933,7 @@
         <v>44980.64266203704</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18995,7 +18995,7 @@
         <v>44612</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19052,7 +19052,7 @@
         <v>45973.61737268518</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19114,7 +19114,7 @@
         <v>45727</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         <v>45691.39052083333</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19228,7 +19228,7 @@
         <v>45972.61436342593</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19290,7 +19290,7 @@
         <v>45974.59010416667</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19347,7 +19347,7 @@
         <v>45322</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19404,7 +19404,7 @@
         <v>45596.3786574074</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19461,7 +19461,7 @@
         <v>45979</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>45309</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>45639.71756944444</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>45981.48138888889</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19699,7 +19699,7 @@
         <v>45981.64387731482</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19756,7 +19756,7 @@
         <v>45194</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19813,7 +19813,7 @@
         <v>45981.65017361111</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19870,7 +19870,7 @@
         <v>45677.57335648148</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>45985.65357638889</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19984,7 +19984,7 @@
         <v>45169.87157407407</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20041,7 +20041,7 @@
         <v>45579.37496527778</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>45471.48064814815</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44509</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20222,7 +20222,7 @@
         <v>45986.62628472222</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20284,7 +20284,7 @@
         <v>45987.46614583334</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20346,7 +20346,7 @@
         <v>45712.64303240741</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20403,7 +20403,7 @@
         <v>45988.6047800926</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20465,7 +20465,7 @@
         <v>45604.42420138889</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20522,7 +20522,7 @@
         <v>45988.53334490741</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20579,7 +20579,7 @@
         <v>45377.34111111111</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20636,7 +20636,7 @@
         <v>44966.57096064815</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20693,7 +20693,7 @@
         <v>45988.52559027778</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20750,7 +20750,7 @@
         <v>46030.45414351852</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20807,7 +20807,7 @@
         <v>45988</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20869,7 +20869,7 @@
         <v>46035.36212962963</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20926,7 +20926,7 @@
         <v>45754</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20988,7 +20988,7 @@
         <v>46033.80243055556</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21045,7 +21045,7 @@
         <v>45331.49379629629</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21102,7 +21102,7 @@
         <v>45481.30422453704</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21159,7 +21159,7 @@
         <v>45993.57144675926</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21216,7 +21216,7 @@
         <v>46034.59151620371</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21273,7 +21273,7 @@
         <v>45993.59385416667</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21330,7 +21330,7 @@
         <v>46037.31042824074</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21387,7 +21387,7 @@
         <v>45994.56637731481</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21444,7 +21444,7 @@
         <v>46037.385625</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21501,7 +21501,7 @@
         <v>45457.62734953704</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21558,7 +21558,7 @@
         <v>46036.47221064815</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21615,7 +21615,7 @@
         <v>45002.38197916667</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21677,7 +21677,7 @@
         <v>46037.82216435186</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21734,7 +21734,7 @@
         <v>46036.46501157407</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21791,7 +21791,7 @@
         <v>45995.58725694445</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21848,7 +21848,7 @@
         <v>45994.38174768518</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21905,7 +21905,7 @@
         <v>45418</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21962,7 +21962,7 @@
         <v>46039.77504629629</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22019,7 +22019,7 @@
         <v>45614.58354166667</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22076,7 +22076,7 @@
         <v>45714.32625</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22133,7 +22133,7 @@
         <v>45996.38019675926</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         <v>45617.54045138889</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22252,7 +22252,7 @@
         <v>45679</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22309,7 +22309,7 @@
         <v>46042.6171875</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22366,7 +22366,7 @@
         <v>45183.26203703704</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22423,7 +22423,7 @@
         <v>46001.47554398148</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22485,7 +22485,7 @@
         <v>45106.58868055556</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22547,7 +22547,7 @@
         <v>46042.45342592592</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22604,7 +22604,7 @@
         <v>46043.74402777778</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22661,7 +22661,7 @@
         <v>44503</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22723,7 +22723,7 @@
         <v>46042.33083333333</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22780,7 +22780,7 @@
         <v>46042.431875</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>46042.45846064815</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22894,7 +22894,7 @@
         <v>45315.61605324074</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22951,7 +22951,7 @@
         <v>45589.62921296297</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         <v>46044.44141203703</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
         <v>45532</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23122,7 +23122,7 @@
         <v>44307</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23184,7 +23184,7 @@
         <v>44960</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23241,7 +23241,7 @@
         <v>46002.4481712963</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23298,7 +23298,7 @@
         <v>46002.35988425926</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23355,7 +23355,7 @@
         <v>46049.34185185185</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23417,7 +23417,7 @@
         <v>46049.42231481482</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>46048.9335300926</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>45204.35577546297</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
         <v>46048.56425925926</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23650,7 +23650,7 @@
         <v>45085</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         <v>45376.44659722222</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23764,7 +23764,7 @@
         <v>45737.48921296297</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         <v>46051.45114583334</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23883,7 +23883,7 @@
         <v>46009.45252314815</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23940,7 +23940,7 @@
         <v>46050.40844907407</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23997,7 +23997,7 @@
         <v>46051.59634259259</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24059,7 +24059,7 @@
         <v>46049</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24116,7 +24116,7 @@
         <v>46051.42921296296</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24173,7 +24173,7 @@
         <v>46052.66626157407</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24230,7 +24230,7 @@
         <v>46034</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24287,7 +24287,7 @@
         <v>46034</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24344,7 +24344,7 @@
         <v>44546</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24406,7 +24406,7 @@
         <v>44942</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24463,7 +24463,7 @@
         <v>45147.65657407408</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24520,7 +24520,7 @@
         <v>46057.64628472222</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24577,7 +24577,7 @@
         <v>45187.34733796296</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24634,7 +24634,7 @@
         <v>46058.51758101852</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24691,7 +24691,7 @@
         <v>45733.32369212963</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24748,7 +24748,7 @@
         <v>46058.59798611111</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24805,7 +24805,7 @@
         <v>46058.59936342593</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24862,7 +24862,7 @@
         <v>46058.58</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24919,7 +24919,7 @@
         <v>46058.58513888889</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24976,7 +24976,7 @@
         <v>46059.58263888889</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25033,7 +25033,7 @@
         <v>46021</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25090,7 +25090,7 @@
         <v>45643.63615740741</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25152,7 +25152,7 @@
         <v>45166.59652777778</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25209,7 +25209,7 @@
         <v>46021</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         <v>45644.65783564815</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25323,7 +25323,7 @@
         <v>46063.73574074074</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25380,7 +25380,7 @@
         <v>46062.57390046296</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25437,7 +25437,7 @@
         <v>45174.5846875</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25499,7 +25499,7 @@
         <v>44739</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25561,7 +25561,7 @@
         <v>45363.86148148148</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25618,7 +25618,7 @@
         <v>45363.87252314815</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25675,7 +25675,7 @@
         <v>46041</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25732,7 +25732,7 @@
         <v>44869</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25789,7 +25789,7 @@
         <v>45539.7515625</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25846,7 +25846,7 @@
         <v>45749.55953703704</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25903,7 +25903,7 @@
         <v>44805</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25965,7 +25965,7 @@
         <v>45299</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26022,7 +26022,7 @@
         <v>45689.46016203704</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26079,7 +26079,7 @@
         <v>45689.51372685185</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26136,7 +26136,7 @@
         <v>45516.63180555555</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26193,7 +26193,7 @@
         <v>45631.48799768519</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26250,7 +26250,7 @@
         <v>45244.66481481482</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26307,7 +26307,7 @@
         <v>45617.52883101852</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26364,7 +26364,7 @@
         <v>44908</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26421,7 +26421,7 @@
         <v>45596.5975</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26483,7 +26483,7 @@
         <v>45247.61887731482</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26540,7 +26540,7 @@
         <v>46071.43306712963</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26597,7 +26597,7 @@
         <v>45225.58869212963</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         <v>46029</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26716,7 +26716,7 @@
         <v>44461</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26773,7 +26773,7 @@
         <v>45418.31195601852</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26830,7 +26830,7 @@
         <v>46028.45001157407</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26887,7 +26887,7 @@
         <v>45169</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26944,7 +26944,7 @@
         <v>46031.31383101852</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27006,7 +27006,7 @@
         <v>44701</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27063,7 +27063,7 @@
         <v>45296.36752314815</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27120,7 +27120,7 @@
         <v>44336</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27182,7 +27182,7 @@
         <v>45575.47936342593</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27239,7 +27239,7 @@
         <v>45775.46444444444</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27296,7 +27296,7 @@
         <v>45754</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27358,7 +27358,7 @@
         <v>45008.82340277778</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27415,7 +27415,7 @@
         <v>45617.47939814815</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27472,7 +27472,7 @@
         <v>45448.42597222222</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27529,7 +27529,7 @@
         <v>45359.4921875</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27586,7 +27586,7 @@
         <v>45707.65648148148</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27643,7 +27643,7 @@
         <v>45735.62751157407</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27705,7 +27705,7 @@
         <v>44930.47913194444</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27762,7 +27762,7 @@
         <v>45265.67287037037</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>45110</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27881,7 +27881,7 @@
         <v>45471.47335648148</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27938,7 +27938,7 @@
         <v>45677.63202546296</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27995,7 +27995,7 @@
         <v>44257</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28052,7 +28052,7 @@
         <v>45372</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28109,7 +28109,7 @@
         <v>45184.59045138889</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28166,7 +28166,7 @@
         <v>45082</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28228,7 +28228,7 @@
         <v>44867.38975694445</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28285,7 +28285,7 @@
         <v>44837</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28347,7 +28347,7 @@
         <v>45754.64412037037</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28404,7 +28404,7 @@
         <v>45754.65523148148</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28461,7 +28461,7 @@
         <v>44673</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28518,7 +28518,7 @@
         <v>45240.58174768519</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28575,7 +28575,7 @@
         <v>45519.65722222222</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28632,7 +28632,7 @@
         <v>45222.49092592593</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28694,7 +28694,7 @@
         <v>44855.65384259259</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28751,7 +28751,7 @@
         <v>45244.41140046297</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28808,7 +28808,7 @@
         <v>44909</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28865,7 +28865,7 @@
         <v>45630.72998842593</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28922,7 +28922,7 @@
         <v>45630.74299768519</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28979,7 +28979,7 @@
         <v>45331</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29036,7 +29036,7 @@
         <v>45254.62652777778</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29093,7 +29093,7 @@
         <v>45371</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29150,7 +29150,7 @@
         <v>44930.61575231481</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29207,7 +29207,7 @@
         <v>45425.56932870371</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29269,7 +29269,7 @@
         <v>45244</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29326,7 +29326,7 @@
         <v>45631.48559027778</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29383,7 +29383,7 @@
         <v>45160.43616898148</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29440,7 +29440,7 @@
         <v>45735.60324074074</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29502,7 +29502,7 @@
         <v>45513.28902777778</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29559,7 +29559,7 @@
         <v>45595.69030092593</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29616,7 +29616,7 @@
         <v>44960.50465277778</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29673,7 +29673,7 @@
         <v>45631.49017361111</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29730,7 +29730,7 @@
         <v>45440.31517361111</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29787,7 +29787,7 @@
         <v>45625.34310185185</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29849,7 +29849,7 @@
         <v>45247.5615625</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         <v>44931.36844907407</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29963,7 +29963,7 @@
         <v>45715.32804398148</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30020,7 +30020,7 @@
         <v>45588.595625</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30082,7 +30082,7 @@
         <v>45763.58126157407</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30139,7 +30139,7 @@
         <v>45169.86748842592</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30196,7 +30196,7 @@
         <v>45491.50755787037</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30253,7 +30253,7 @@
         <v>45672.69732638889</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30310,7 +30310,7 @@
         <v>45748.66989583334</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30367,7 +30367,7 @@
         <v>45762</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30429,7 +30429,7 @@
         <v>45722.6621875</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30486,7 +30486,7 @@
         <v>45700.38591435185</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30543,7 +30543,7 @@
         <v>45762</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30605,7 +30605,7 @@
         <v>45653</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30662,7 +30662,7 @@
         <v>44916</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30724,7 +30724,7 @@
         <v>45754.65130787037</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30781,7 +30781,7 @@
         <v>45680.33721064815</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30838,7 +30838,7 @@
         <v>45744.39063657408</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30895,7 +30895,7 @@
         <v>45582.55339120371</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30952,7 +30952,7 @@
         <v>45215.64871527778</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31009,7 +31009,7 @@
         <v>45215</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31066,7 +31066,7 @@
         <v>45776</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31128,7 +31128,7 @@
         <v>45776</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31190,7 +31190,7 @@
         <v>45783.40085648148</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31247,7 +31247,7 @@
         <v>45674.65028935186</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31304,7 +31304,7 @@
         <v>45783.45273148148</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31361,7 +31361,7 @@
         <v>45783</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31423,7 +31423,7 @@
         <v>44426</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31480,7 +31480,7 @@
         <v>45483.31819444444</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31537,7 +31537,7 @@
         <v>45518.63627314815</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31594,7 +31594,7 @@
         <v>45492</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31651,7 +31651,7 @@
         <v>44719</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31708,7 +31708,7 @@
         <v>45582</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31765,7 +31765,7 @@
         <v>45793.54155092593</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31822,7 +31822,7 @@
         <v>45793</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31884,7 +31884,7 @@
         <v>45688.47202546296</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31941,7 +31941,7 @@
         <v>45483.67493055556</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32003,7 +32003,7 @@
         <v>45531.56623842593</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32060,7 +32060,7 @@
         <v>45798</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32117,7 +32117,7 @@
         <v>45803.33614583333</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32179,7 +32179,7 @@
         <v>45800.49591435185</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32236,7 +32236,7 @@
         <v>45807</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32293,7 +32293,7 @@
         <v>45807</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32350,7 +32350,7 @@
         <v>45806.5102662037</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32412,7 +32412,7 @@
         <v>45810.43638888889</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32474,7 +32474,7 @@
         <v>45811.54238425926</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32531,7 +32531,7 @@
         <v>45811.54483796296</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32588,7 +32588,7 @@
         <v>45810.4090625</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32650,7 +32650,7 @@
         <v>45811.51887731482</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32707,7 +32707,7 @@
         <v>45811.53903935185</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32764,7 +32764,7 @@
         <v>45811.56743055556</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32821,7 +32821,7 @@
         <v>45811.62408564815</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32883,7 +32883,7 @@
         <v>45695</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32940,7 +32940,7 @@
         <v>45811.81252314815</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32997,7 +32997,7 @@
         <v>45813.42409722223</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33059,7 +33059,7 @@
         <v>45817</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>

--- a/Översikt VANSBRO.xlsx
+++ b/Översikt VANSBRO.xlsx
@@ -575,7 +575,7 @@
         <v>45492</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>44820</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         <v>45987</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>45880.60349537037</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
         <v>45727</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>45735</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         <v>46014.48791666667</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>46007.50496527777</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1407,7 +1407,7 @@
         <v>45833</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>45483.31681712963</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>45842</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>45576</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>45735</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>45735</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
         <v>45409.75594907408</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>44442</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         <v>45840</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>45516</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>45842</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>45726</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44790</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>45735.5975925926</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
         <v>46034.58902777778</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>45394.56071759259</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>44439</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         <v>44307</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
         <v>44460</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         <v>45839</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>45956.10560185185</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         <v>45982.39892361111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>45576</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>45247.33710648148</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>44462</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>44881.42980324074</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3727,7 +3727,7 @@
         <v>44308</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3784,7 +3784,7 @@
         <v>44453.41665509259</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3846,7 +3846,7 @@
         <v>44337</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>44753</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>44519</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>44830.49607638889</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>44249</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>44453.52461805556</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>44519</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>44708</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>44673</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>44739.6862962963</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>44742.58832175926</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>44386.4465162037</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>44790</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>44880.61246527778</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>44826</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>44672</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>44739</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         <v>44790.63685185185</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>44336.408125</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>44371.61636574074</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>44465.84288194445</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>44774</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>44504.38153935185</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
         <v>44614</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>44817.35511574074</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5326,7 +5326,7 @@
         <v>44414</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5388,7 +5388,7 @@
         <v>44790.64916666667</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5450,7 +5450,7 @@
         <v>44732</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5512,7 +5512,7 @@
         <v>44827.6090625</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5574,7 +5574,7 @@
         <v>44748.65480324074</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5631,7 +5631,7 @@
         <v>44446.30186342593</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5688,7 +5688,7 @@
         <v>44300.45302083333</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>44476</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>44477</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>44643</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>44734.32988425926</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5983,7 +5983,7 @@
         <v>44812.48827546297</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>44754.39405092593</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
         <v>44754.39853009259</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>44816.40621527778</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>45498.40660879629</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>44442</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>45530.64337962963</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>45575</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6464,7 +6464,7 @@
         <v>44957</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>45443.52902777777</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>45141.37741898148</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>45617.4893287037</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6712,7 +6712,7 @@
         <v>45078</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>45322</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>45726.58685185185</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>45194.64940972222</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>44886</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>45594.3728125</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>45455.60853009259</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7121,7 +7121,7 @@
         <v>44791</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
         <v>44826.57543981481</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>45183.49590277778</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>45544.67094907408</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7364,7 +7364,7 @@
         <v>45621.60984953704</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         <v>44796.504375</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
         <v>45315.61822916667</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7540,7 +7540,7 @@
         <v>45637.44667824074</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>44648.63498842593</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>45689.54017361111</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7711,7 +7711,7 @@
         <v>45680.54168981482</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         <v>45512.62424768518</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7825,7 +7825,7 @@
         <v>45189.83035879629</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7882,7 +7882,7 @@
         <v>45754.65372685185</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         <v>45754.66079861111</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7996,7 +7996,7 @@
         <v>45377.34850694444</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8053,7 +8053,7 @@
         <v>45771.34391203704</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>44298.57814814815</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8172,7 +8172,7 @@
         <v>45689.52416666667</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8229,7 +8229,7 @@
         <v>45603.54407407407</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8286,7 +8286,7 @@
         <v>45634.73024305556</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>45530.66306712963</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>44925</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8462,7 +8462,7 @@
         <v>45111</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8519,7 +8519,7 @@
         <v>45817</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8581,7 +8581,7 @@
         <v>45817.60616898148</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8638,7 +8638,7 @@
         <v>45240.98564814815</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8695,7 +8695,7 @@
         <v>45817.55212962963</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8752,7 +8752,7 @@
         <v>45819.42872685185</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8814,7 +8814,7 @@
         <v>44862</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>45576</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
         <v>45532</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
         <v>45819.43546296296</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>45884.62741898148</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9114,7 +9114,7 @@
         <v>45217</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9176,7 +9176,7 @@
         <v>44469.61916666666</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9233,7 +9233,7 @@
         <v>45888.65284722222</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9290,7 +9290,7 @@
         <v>45888.65797453704</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9347,7 +9347,7 @@
         <v>45888.6600925926</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9404,7 +9404,7 @@
         <v>45222.48548611111</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9466,7 +9466,7 @@
         <v>44728.4549537037</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9528,7 +9528,7 @@
         <v>44728</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9590,7 +9590,7 @@
         <v>45551.65304398148</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9647,7 +9647,7 @@
         <v>45888.71024305555</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         <v>45824.42596064815</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>45888.47853009259</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9818,7 +9818,7 @@
         <v>45826</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>45890.4027662037</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>44841</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9999,7 +9999,7 @@
         <v>45890</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10061,7 +10061,7 @@
         <v>45890.37231481481</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10123,7 +10123,7 @@
         <v>45895</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>45744.32628472222</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>45258.3330787037</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>44316.48511574074</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10356,7 +10356,7 @@
         <v>44316.49489583333</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         <v>45833</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10470,7 +10470,7 @@
         <v>45833</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>45832.68217592593</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>45897.60113425926</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>45833.41353009259</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>45832.62859953703</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         <v>45183.49864583334</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>45832.68709490741</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>45832</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>45764</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>45764</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>45833.5853125</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         <v>45833</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         <v>45833.5831712963</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11241,7 +11241,7 @@
         <v>45833</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11298,7 +11298,7 @@
         <v>45901</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11360,7 +11360,7 @@
         <v>45665.56862268518</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>45835.53105324074</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11484,7 +11484,7 @@
         <v>45835.42917824074</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11541,7 +11541,7 @@
         <v>44820</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11598,7 +11598,7 @@
         <v>45902.58972222222</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11655,7 +11655,7 @@
         <v>45902.43103009259</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11712,7 +11712,7 @@
         <v>45531</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11774,7 +11774,7 @@
         <v>45646.73391203704</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11831,7 +11831,7 @@
         <v>44594.55498842592</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11888,7 +11888,7 @@
         <v>45904.32818287037</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11945,7 +11945,7 @@
         <v>45904.49546296296</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12002,7 +12002,7 @@
         <v>45904.33445601852</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12059,7 +12059,7 @@
         <v>45463.47873842593</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12116,7 +12116,7 @@
         <v>45840.3518287037</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12173,7 +12173,7 @@
         <v>45840</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12230,7 +12230,7 @@
         <v>45840</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12292,7 +12292,7 @@
         <v>45840.39614583334</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12354,7 +12354,7 @@
         <v>45666.56121527778</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12416,7 +12416,7 @@
         <v>45840.35265046296</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>45908.55577546296</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12555,7 +12555,7 @@
         <v>45666.70565972223</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12612,7 +12612,7 @@
         <v>45909.94302083334</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12669,7 +12669,7 @@
         <v>45909.93715277778</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12726,7 +12726,7 @@
         <v>45911.51048611111</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12783,7 +12783,7 @@
         <v>45912.60305555556</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12840,7 +12840,7 @@
         <v>45912</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12897,7 +12897,7 @@
         <v>45915.67001157408</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12954,7 +12954,7 @@
         <v>45846.35042824074</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13011,7 +13011,7 @@
         <v>45846.32387731481</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>45846.69233796297</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>45846.34346064815</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>45646</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>45240.30758101852</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
         <v>45890</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>45331</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44811.51353009259</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>45254.30815972222</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>45160.4325462963</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>45854.36267361111</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>45734.33065972223</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>45756.78645833334</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>45860.73835648148</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13819,7 +13819,7 @@
         <v>45063</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13881,7 +13881,7 @@
         <v>45691.39211805556</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>45754.65806712963</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>44880.59405092592</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14057,7 +14057,7 @@
         <v>45813</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14114,7 +14114,7 @@
         <v>45182.36759259259</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>45868.57556712963</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>45443.5037037037</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14295,7 +14295,7 @@
         <v>45689.53123842592</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14352,7 +14352,7 @@
         <v>45874</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14409,7 +14409,7 @@
         <v>45516</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>44272</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14523,7 +14523,7 @@
         <v>45527.36696759259</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14580,7 +14580,7 @@
         <v>44798</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14642,7 +14642,7 @@
         <v>45933.33965277778</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14699,7 +14699,7 @@
         <v>45876.50083333333</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>45877.37292824074</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14818,7 +14818,7 @@
         <v>45933.34494212963</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14875,7 +14875,7 @@
         <v>45876.50278935185</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>45826</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14994,7 +14994,7 @@
         <v>45214.84159722222</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15051,7 +15051,7 @@
         <v>45932.36393518518</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15108,7 +15108,7 @@
         <v>45932.49101851852</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         <v>45936.66438657408</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15222,7 +15222,7 @@
         <v>45350.31621527778</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15279,7 +15279,7 @@
         <v>45882.65212962963</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15341,7 +15341,7 @@
         <v>45882.63377314815</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15403,7 +15403,7 @@
         <v>45883.63190972222</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>45938.57802083333</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>45882.58366898148</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15579,7 +15579,7 @@
         <v>45532</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>45937.42217592592</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15693,7 +15693,7 @@
         <v>44881</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15750,7 +15750,7 @@
         <v>45600.58436342593</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15812,7 +15812,7 @@
         <v>45623.58370370371</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15869,7 +15869,7 @@
         <v>45939.64640046296</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15926,7 +15926,7 @@
         <v>45939.58782407407</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15988,7 +15988,7 @@
         <v>45939.64821759259</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
         <v>45520</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         <v>45939.64255787037</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>45169.66387731482</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>45940.43707175926</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16273,7 +16273,7 @@
         <v>45533.45655092593</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         <v>45945.63233796296</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>45665</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>45912</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16506,7 +16506,7 @@
         <v>44980.64003472222</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16568,7 +16568,7 @@
         <v>45453.61982638889</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16625,7 +16625,7 @@
         <v>45945.83503472222</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16682,7 +16682,7 @@
         <v>45937</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16744,7 +16744,7 @@
         <v>45947.6353125</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>45945.83003472222</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16858,7 +16858,7 @@
         <v>45937</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16920,7 +16920,7 @@
         <v>45950.50633101852</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>45952</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17044,7 +17044,7 @@
         <v>45953.60679398148</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17101,7 +17101,7 @@
         <v>45952.60009259259</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17158,7 +17158,7 @@
         <v>45238.65434027778</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17220,7 +17220,7 @@
         <v>44970.44603009259</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17277,7 +17277,7 @@
         <v>45956.09799768519</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17339,7 +17339,7 @@
         <v>45956.11425925926</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17401,7 +17401,7 @@
         <v>45772.59885416667</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17458,7 +17458,7 @@
         <v>45955.9987962963</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17520,7 +17520,7 @@
         <v>45955.96217592592</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17582,7 +17582,7 @@
         <v>45956.04900462963</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17644,7 +17644,7 @@
         <v>45954.41494212963</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17701,7 +17701,7 @@
         <v>45954.04571759259</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
         <v>45440.64032407408</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17825,7 +17825,7 @@
         <v>45673.36819444445</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17882,7 +17882,7 @@
         <v>45646.85320601852</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17939,7 +17939,7 @@
         <v>45646.86575231481</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17996,7 +17996,7 @@
         <v>45959</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18058,7 +18058,7 @@
         <v>44972</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18115,7 +18115,7 @@
         <v>45961.57829861111</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18172,7 +18172,7 @@
         <v>45614</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18229,7 +18229,7 @@
         <v>45772.59590277778</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>45520</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18343,7 +18343,7 @@
         <v>45965</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18400,7 +18400,7 @@
         <v>45964.41689814815</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18462,7 +18462,7 @@
         <v>45601.56724537037</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>45965.36116898148</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18581,7 +18581,7 @@
         <v>45965.69846064815</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18643,7 +18643,7 @@
         <v>45965.74467592593</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18705,7 +18705,7 @@
         <v>45754.66570601852</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18762,7 +18762,7 @@
         <v>45966.56648148148</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18819,7 +18819,7 @@
         <v>45471.49597222222</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18876,7 +18876,7 @@
         <v>45967.40354166667</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18933,7 +18933,7 @@
         <v>44980.64266203704</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18995,7 +18995,7 @@
         <v>44612</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19052,7 +19052,7 @@
         <v>45973.61737268518</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19114,7 +19114,7 @@
         <v>45727</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         <v>45691.39052083333</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19228,7 +19228,7 @@
         <v>45972.61436342593</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19290,7 +19290,7 @@
         <v>45974.59010416667</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19347,7 +19347,7 @@
         <v>45322</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19404,7 +19404,7 @@
         <v>45596.3786574074</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19461,7 +19461,7 @@
         <v>45979</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>45309</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>45639.71756944444</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>45981.48138888889</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19699,7 +19699,7 @@
         <v>45981.64387731482</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19756,7 +19756,7 @@
         <v>45194</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19813,7 +19813,7 @@
         <v>45981.65017361111</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19870,7 +19870,7 @@
         <v>45677.57335648148</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>45985.65357638889</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19984,7 +19984,7 @@
         <v>45169.87157407407</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20041,7 +20041,7 @@
         <v>45579.37496527778</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>45471.48064814815</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44509</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20222,7 +20222,7 @@
         <v>45986.62628472222</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20284,7 +20284,7 @@
         <v>45987.46614583334</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20346,7 +20346,7 @@
         <v>45712.64303240741</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20403,7 +20403,7 @@
         <v>45988.6047800926</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20465,7 +20465,7 @@
         <v>45604.42420138889</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20522,7 +20522,7 @@
         <v>45988.53334490741</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20579,7 +20579,7 @@
         <v>45377.34111111111</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20636,7 +20636,7 @@
         <v>44966.57096064815</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20693,7 +20693,7 @@
         <v>45988.52559027778</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20750,7 +20750,7 @@
         <v>46030.45414351852</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20807,7 +20807,7 @@
         <v>45988</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20869,7 +20869,7 @@
         <v>46035.36212962963</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20926,7 +20926,7 @@
         <v>45754</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20988,7 +20988,7 @@
         <v>46033.80243055556</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21045,7 +21045,7 @@
         <v>45331.49379629629</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21102,7 +21102,7 @@
         <v>45481.30422453704</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21159,7 +21159,7 @@
         <v>45993.57144675926</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21216,7 +21216,7 @@
         <v>46034.59151620371</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21273,7 +21273,7 @@
         <v>45993.59385416667</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21330,7 +21330,7 @@
         <v>46037.31042824074</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21387,7 +21387,7 @@
         <v>45994.56637731481</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21444,7 +21444,7 @@
         <v>46037.385625</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21501,7 +21501,7 @@
         <v>45457.62734953704</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21558,7 +21558,7 @@
         <v>46036.47221064815</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21615,7 +21615,7 @@
         <v>45002.38197916667</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21677,7 +21677,7 @@
         <v>46037.82216435186</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21734,7 +21734,7 @@
         <v>46036.46501157407</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21791,7 +21791,7 @@
         <v>45995.58725694445</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21848,7 +21848,7 @@
         <v>45994.38174768518</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21905,7 +21905,7 @@
         <v>45418</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21962,7 +21962,7 @@
         <v>46039.77504629629</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22019,7 +22019,7 @@
         <v>45614.58354166667</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22076,7 +22076,7 @@
         <v>45714.32625</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22133,7 +22133,7 @@
         <v>45996.38019675926</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         <v>45617.54045138889</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22252,7 +22252,7 @@
         <v>45679</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22309,7 +22309,7 @@
         <v>46042.6171875</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22366,7 +22366,7 @@
         <v>45183.26203703704</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22423,7 +22423,7 @@
         <v>46001.47554398148</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22485,7 +22485,7 @@
         <v>45106.58868055556</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22547,7 +22547,7 @@
         <v>46042.45342592592</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22604,7 +22604,7 @@
         <v>46043.74402777778</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22661,7 +22661,7 @@
         <v>44503</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22723,7 +22723,7 @@
         <v>46042.33083333333</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22780,7 +22780,7 @@
         <v>46042.431875</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>46042.45846064815</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22894,7 +22894,7 @@
         <v>45315.61605324074</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22951,7 +22951,7 @@
         <v>45589.62921296297</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         <v>46044.44141203703</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
         <v>45532</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23122,7 +23122,7 @@
         <v>44307</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23184,7 +23184,7 @@
         <v>44960</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23241,7 +23241,7 @@
         <v>46002.4481712963</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23298,7 +23298,7 @@
         <v>46002.35988425926</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23355,7 +23355,7 @@
         <v>46049.34185185185</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23417,7 +23417,7 @@
         <v>46049.42231481482</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>46048.9335300926</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>45204.35577546297</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
         <v>46048.56425925926</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23650,7 +23650,7 @@
         <v>45085</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         <v>45376.44659722222</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23764,7 +23764,7 @@
         <v>45737.48921296297</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         <v>46051.45114583334</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23883,7 +23883,7 @@
         <v>46009.45252314815</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23940,7 +23940,7 @@
         <v>46050.40844907407</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23997,7 +23997,7 @@
         <v>46051.59634259259</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24059,7 +24059,7 @@
         <v>46049</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24116,7 +24116,7 @@
         <v>46051.42921296296</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24173,7 +24173,7 @@
         <v>46052.66626157407</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24230,7 +24230,7 @@
         <v>46034</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24287,7 +24287,7 @@
         <v>46034</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24344,7 +24344,7 @@
         <v>44546</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24406,7 +24406,7 @@
         <v>44942</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24463,7 +24463,7 @@
         <v>45147.65657407408</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24520,7 +24520,7 @@
         <v>46057.64628472222</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24577,7 +24577,7 @@
         <v>45187.34733796296</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24634,7 +24634,7 @@
         <v>46058.51758101852</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24691,7 +24691,7 @@
         <v>45733.32369212963</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24748,7 +24748,7 @@
         <v>46058.59798611111</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24805,7 +24805,7 @@
         <v>46058.59936342593</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24862,7 +24862,7 @@
         <v>46058.58</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24919,7 +24919,7 @@
         <v>46058.58513888889</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24976,7 +24976,7 @@
         <v>46059.58263888889</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25033,7 +25033,7 @@
         <v>46021</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25090,7 +25090,7 @@
         <v>45643.63615740741</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25152,7 +25152,7 @@
         <v>45166.59652777778</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25209,7 +25209,7 @@
         <v>46021</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         <v>45644.65783564815</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25323,7 +25323,7 @@
         <v>46063.73574074074</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25380,7 +25380,7 @@
         <v>46062.57390046296</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25437,7 +25437,7 @@
         <v>45174.5846875</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25499,7 +25499,7 @@
         <v>44739</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25561,7 +25561,7 @@
         <v>45363.86148148148</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25618,7 +25618,7 @@
         <v>45363.87252314815</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25675,7 +25675,7 @@
         <v>46041</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25732,7 +25732,7 @@
         <v>44869</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25789,7 +25789,7 @@
         <v>45539.7515625</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25846,7 +25846,7 @@
         <v>45749.55953703704</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25903,7 +25903,7 @@
         <v>44805</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25965,7 +25965,7 @@
         <v>45299</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26022,7 +26022,7 @@
         <v>45689.46016203704</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26079,7 +26079,7 @@
         <v>45689.51372685185</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26136,7 +26136,7 @@
         <v>45516.63180555555</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26193,7 +26193,7 @@
         <v>45631.48799768519</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26250,7 +26250,7 @@
         <v>45244.66481481482</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26307,7 +26307,7 @@
         <v>45617.52883101852</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26364,7 +26364,7 @@
         <v>44908</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26421,7 +26421,7 @@
         <v>45596.5975</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26483,7 +26483,7 @@
         <v>45247.61887731482</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26540,7 +26540,7 @@
         <v>46071.43306712963</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26597,7 +26597,7 @@
         <v>45225.58869212963</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         <v>46029</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26716,7 +26716,7 @@
         <v>44461</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26773,7 +26773,7 @@
         <v>45418.31195601852</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26830,7 +26830,7 @@
         <v>46028.45001157407</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26887,7 +26887,7 @@
         <v>45169</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26944,7 +26944,7 @@
         <v>46031.31383101852</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27006,7 +27006,7 @@
         <v>44701</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27063,7 +27063,7 @@
         <v>45296.36752314815</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27120,7 +27120,7 @@
         <v>44336</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27182,7 +27182,7 @@
         <v>45575.47936342593</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27239,7 +27239,7 @@
         <v>45775.46444444444</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27296,7 +27296,7 @@
         <v>45754</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27358,7 +27358,7 @@
         <v>45008.82340277778</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27415,7 +27415,7 @@
         <v>45617.47939814815</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27472,7 +27472,7 @@
         <v>45448.42597222222</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27529,7 +27529,7 @@
         <v>45359.4921875</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27586,7 +27586,7 @@
         <v>45707.65648148148</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27643,7 +27643,7 @@
         <v>45735.62751157407</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27705,7 +27705,7 @@
         <v>44930.47913194444</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27762,7 +27762,7 @@
         <v>45265.67287037037</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>45110</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27881,7 +27881,7 @@
         <v>45471.47335648148</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27938,7 +27938,7 @@
         <v>45677.63202546296</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27995,7 +27995,7 @@
         <v>44257</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28052,7 +28052,7 @@
         <v>45372</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28109,7 +28109,7 @@
         <v>45184.59045138889</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28166,7 +28166,7 @@
         <v>45082</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28228,7 +28228,7 @@
         <v>44867.38975694445</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28285,7 +28285,7 @@
         <v>44837</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28347,7 +28347,7 @@
         <v>45754.64412037037</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28404,7 +28404,7 @@
         <v>45754.65523148148</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28461,7 +28461,7 @@
         <v>44673</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28518,7 +28518,7 @@
         <v>45240.58174768519</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28575,7 +28575,7 @@
         <v>45519.65722222222</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28632,7 +28632,7 @@
         <v>45222.49092592593</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28694,7 +28694,7 @@
         <v>44855.65384259259</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28751,7 +28751,7 @@
         <v>45244.41140046297</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28808,7 +28808,7 @@
         <v>44909</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28865,7 +28865,7 @@
         <v>45630.72998842593</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28922,7 +28922,7 @@
         <v>45630.74299768519</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28979,7 +28979,7 @@
         <v>45331</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29036,7 +29036,7 @@
         <v>45254.62652777778</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29093,7 +29093,7 @@
         <v>45371</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29150,7 +29150,7 @@
         <v>44930.61575231481</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29207,7 +29207,7 @@
         <v>45425.56932870371</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29269,7 +29269,7 @@
         <v>45244</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29326,7 +29326,7 @@
         <v>45631.48559027778</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29383,7 +29383,7 @@
         <v>45160.43616898148</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29440,7 +29440,7 @@
         <v>45735.60324074074</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29502,7 +29502,7 @@
         <v>45513.28902777778</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29559,7 +29559,7 @@
         <v>45595.69030092593</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29616,7 +29616,7 @@
         <v>44960.50465277778</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29673,7 +29673,7 @@
         <v>45631.49017361111</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29730,7 +29730,7 @@
         <v>45440.31517361111</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29787,7 +29787,7 @@
         <v>45625.34310185185</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29849,7 +29849,7 @@
         <v>45247.5615625</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         <v>44931.36844907407</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29963,7 +29963,7 @@
         <v>45715.32804398148</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30020,7 +30020,7 @@
         <v>45588.595625</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30082,7 +30082,7 @@
         <v>45763.58126157407</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30139,7 +30139,7 @@
         <v>45169.86748842592</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30196,7 +30196,7 @@
         <v>45491.50755787037</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30253,7 +30253,7 @@
         <v>45672.69732638889</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30310,7 +30310,7 @@
         <v>45748.66989583334</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30367,7 +30367,7 @@
         <v>45762</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30429,7 +30429,7 @@
         <v>45722.6621875</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30486,7 +30486,7 @@
         <v>45700.38591435185</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30543,7 +30543,7 @@
         <v>45762</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30605,7 +30605,7 @@
         <v>45653</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30662,7 +30662,7 @@
         <v>44916</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30724,7 +30724,7 @@
         <v>45754.65130787037</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30781,7 +30781,7 @@
         <v>45680.33721064815</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30838,7 +30838,7 @@
         <v>45744.39063657408</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30895,7 +30895,7 @@
         <v>45582.55339120371</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30952,7 +30952,7 @@
         <v>45215.64871527778</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31009,7 +31009,7 @@
         <v>45215</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31066,7 +31066,7 @@
         <v>45776</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31128,7 +31128,7 @@
         <v>45776</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31190,7 +31190,7 @@
         <v>45783.40085648148</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31247,7 +31247,7 @@
         <v>45674.65028935186</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31304,7 +31304,7 @@
         <v>45783.45273148148</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31361,7 +31361,7 @@
         <v>45783</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31423,7 +31423,7 @@
         <v>44426</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31480,7 +31480,7 @@
         <v>45483.31819444444</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31537,7 +31537,7 @@
         <v>45518.63627314815</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31594,7 +31594,7 @@
         <v>45492</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31651,7 +31651,7 @@
         <v>44719</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31708,7 +31708,7 @@
         <v>45582</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31765,7 +31765,7 @@
         <v>45793.54155092593</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31822,7 +31822,7 @@
         <v>45793</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31884,7 +31884,7 @@
         <v>45688.47202546296</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31941,7 +31941,7 @@
         <v>45483.67493055556</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32003,7 +32003,7 @@
         <v>45531.56623842593</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32060,7 +32060,7 @@
         <v>45798</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32117,7 +32117,7 @@
         <v>45803.33614583333</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32179,7 +32179,7 @@
         <v>45800.49591435185</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32236,7 +32236,7 @@
         <v>45807</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32293,7 +32293,7 @@
         <v>45807</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32350,7 +32350,7 @@
         <v>45806.5102662037</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32412,7 +32412,7 @@
         <v>45810.43638888889</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32474,7 +32474,7 @@
         <v>45811.54238425926</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32531,7 +32531,7 @@
         <v>45811.54483796296</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32588,7 +32588,7 @@
         <v>45810.4090625</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32650,7 +32650,7 @@
         <v>45811.51887731482</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32707,7 +32707,7 @@
         <v>45811.53903935185</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32764,7 +32764,7 @@
         <v>45811.56743055556</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32821,7 +32821,7 @@
         <v>45811.62408564815</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32883,7 +32883,7 @@
         <v>45695</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32940,7 +32940,7 @@
         <v>45811.81252314815</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32997,7 +32997,7 @@
         <v>45813.42409722223</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33059,7 +33059,7 @@
         <v>45817</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>

--- a/Översikt VANSBRO.xlsx
+++ b/Översikt VANSBRO.xlsx
@@ -575,7 +575,7 @@
         <v>45492</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>44820</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         <v>45987</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>45880.60349537037</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
         <v>45727</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>45735</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         <v>46014.48791666667</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>46007.50496527777</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1407,7 +1407,7 @@
         <v>45483.31681712963</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>45833</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>45842</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>45576</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>45735</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>45735</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
         <v>44442</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>45840</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2156,7 +2156,7 @@
         <v>45516</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>45409.75594907408</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>45842</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>45726</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44790</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>45735.5975925926</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
         <v>45394.56071759259</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>46034.58902777778</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>44439</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         <v>44307</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
         <v>44460</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         <v>44462</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>45576</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         <v>45839</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>45956.10560185185</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>45982.39892361111</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>45247.33710648148</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>44881.42980324074</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3727,7 +3727,7 @@
         <v>44308</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3784,7 +3784,7 @@
         <v>44453.41665509259</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3846,7 +3846,7 @@
         <v>44337</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>44753</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>44519</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>44830.49607638889</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>44453.52461805556</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>44519</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>44708</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>44673</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>44739.6862962963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         <v>44742.58832175926</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>44386.4465162037</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>44790</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>44880.61246527778</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         <v>44826</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>44672</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>44739</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
         <v>44336.408125</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>44371.61636574074</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>44790.63685185185</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>44465.84288194445</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>44774</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>44504.38153935185</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>44614</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
         <v>44817.35511574074</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5269,7 +5269,7 @@
         <v>44414</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>44790.64916666667</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5393,7 +5393,7 @@
         <v>44732</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5455,7 +5455,7 @@
         <v>44827.6090625</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         <v>44748.65480324074</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5574,7 +5574,7 @@
         <v>44300.45302083333</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>44446.30186342593</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>44476</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>44477</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>44643</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5869,7 +5869,7 @@
         <v>44734.32988425926</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>44754.39405092593</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>44754.39853009259</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         <v>44816.40621527778</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
         <v>44812.48827546297</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>45754</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>45376.44659722222</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>44811.51353009259</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6350,7 +6350,7 @@
         <v>45110</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>44739</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>44316.48511574074</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>44316.49489583333</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>45363.86148148148</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>45363.87252314815</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>44837</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>45749.55953703704</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>45315.61822916667</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>45533.45655092593</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>45512.62424768518</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>45455.60853009259</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>45588.595625</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>45457.62734953704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7163,7 +7163,7 @@
         <v>45443.5037037037</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>44841</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>45222.48548611111</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>44880.59405092592</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>45377.34850694444</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>44862</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>45644.65783564815</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>44546</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7649,7 +7649,7 @@
         <v>45516</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7706,7 +7706,7 @@
         <v>45516.63180555555</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7763,7 +7763,7 @@
         <v>45174.5846875</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7825,7 +7825,7 @@
         <v>45106.58868055556</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7887,7 +7887,7 @@
         <v>44509</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         <v>45646.73391203704</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>45491.50755787037</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>45544.67094907408</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8125,7 +8125,7 @@
         <v>45806.5102662037</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8187,7 +8187,7 @@
         <v>45883.63190972222</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8249,7 +8249,7 @@
         <v>45884.62741898148</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>45527.36696759259</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>45888.6600925926</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         <v>45888.65797453704</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>45888.71024305555</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         <v>45810.4090625</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8601,7 +8601,7 @@
         <v>45551.65304398148</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8658,7 +8658,7 @@
         <v>45888.47853009259</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8715,7 +8715,7 @@
         <v>45532</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8772,7 +8772,7 @@
         <v>45807</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8829,7 +8829,7 @@
         <v>45888.65284722222</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8886,7 +8886,7 @@
         <v>45807</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8943,7 +8943,7 @@
         <v>45810.43638888889</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9005,7 +9005,7 @@
         <v>45811.51887731482</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9062,7 +9062,7 @@
         <v>45811.53903935185</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9119,7 +9119,7 @@
         <v>45350.31621527778</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9176,7 +9176,7 @@
         <v>45811.54238425926</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9233,7 +9233,7 @@
         <v>45811.62408564815</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9295,7 +9295,7 @@
         <v>45811.56743055556</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         <v>45811.81252314815</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9409,7 +9409,7 @@
         <v>45183.26203703704</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9466,7 +9466,7 @@
         <v>45811.54483796296</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         <v>45813.42409722223</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9585,7 +9585,7 @@
         <v>45695</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9642,7 +9642,7 @@
         <v>45817</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         <v>45817.55212962963</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>45890.4027662037</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>45890</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9885,7 +9885,7 @@
         <v>45890.37231481481</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9947,7 +9947,7 @@
         <v>45689.52416666667</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10004,7 +10004,7 @@
         <v>45817</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         <v>45817.60616898148</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10123,7 +10123,7 @@
         <v>45819.42872685185</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>45819.43546296296</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>45824.42596064815</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>45604.42420138889</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>45826</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>45895</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>45772.59885416667</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>45679</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>45897.60113425926</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>45902.43103009259</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>45498.40660879629</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>45901</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>44966.57096064815</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10894,7 +10894,7 @@
         <v>45902.58972222222</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10951,7 +10951,7 @@
         <v>45904.49546296296</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>45904.33445601852</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
         <v>45832.68217592593</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11122,7 +11122,7 @@
         <v>45832.68709490741</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         <v>45832</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11236,7 +11236,7 @@
         <v>45832.62859953703</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>45904.32818287037</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         <v>45085</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11407,7 +11407,7 @@
         <v>44257</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11464,7 +11464,7 @@
         <v>45082</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>45833.5853125</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>45833.41353009259</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11645,7 +11645,7 @@
         <v>45833</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11702,7 +11702,7 @@
         <v>45833.5831712963</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11759,7 +11759,7 @@
         <v>45833</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11821,7 +11821,7 @@
         <v>45833</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11878,7 +11878,7 @@
         <v>44701</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11935,7 +11935,7 @@
         <v>45733.32369212963</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11992,7 +11992,7 @@
         <v>45833</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12049,7 +12049,7 @@
         <v>45184.59045138889</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12106,7 +12106,7 @@
         <v>45835.42917824074</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         <v>45623.58370370371</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12220,7 +12220,7 @@
         <v>45835.53105324074</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12282,7 +12282,7 @@
         <v>45908.55577546296</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
         <v>45425.56932870371</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12406,7 +12406,7 @@
         <v>45754.66079861111</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12463,7 +12463,7 @@
         <v>44307</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12525,7 +12525,7 @@
         <v>45772.59590277778</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12582,7 +12582,7 @@
         <v>45840</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12639,7 +12639,7 @@
         <v>45840.39614583334</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12701,7 +12701,7 @@
         <v>45840</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         <v>45840.3518287037</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12820,7 +12820,7 @@
         <v>45625.34310185185</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12882,7 +12882,7 @@
         <v>45689.53123842592</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12939,7 +12939,7 @@
         <v>45617.4893287037</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13001,7 +13001,7 @@
         <v>45840.35265046296</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13078,7 +13078,7 @@
         <v>45617.54045138889</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13135,7 +13135,7 @@
         <v>45299</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13192,7 +13192,7 @@
         <v>45748.66989583334</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13249,7 +13249,7 @@
         <v>45244.41140046297</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13306,7 +13306,7 @@
         <v>45909.93715277778</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13363,7 +13363,7 @@
         <v>45909.94302083334</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13420,7 +13420,7 @@
         <v>45601.56724537037</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13477,7 +13477,7 @@
         <v>45846.69233796297</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13534,7 +13534,7 @@
         <v>45846.34346064815</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13591,7 +13591,7 @@
         <v>45846.35042824074</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13648,7 +13648,7 @@
         <v>45846.32387731481</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13705,7 +13705,7 @@
         <v>45481.30422453704</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13762,7 +13762,7 @@
         <v>45637.44667824074</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13819,7 +13819,7 @@
         <v>45166.59652777778</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>45911.51048611111</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13933,7 +13933,7 @@
         <v>45912.60305555556</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13990,7 +13990,7 @@
         <v>45912</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14047,7 +14047,7 @@
         <v>45631.48559027778</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14104,7 +14104,7 @@
         <v>45890</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14161,7 +14161,7 @@
         <v>44869</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14218,7 +14218,7 @@
         <v>45854.36267361111</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         <v>45860.73835648148</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>45915.67001157408</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14394,7 +14394,7 @@
         <v>45756.78645833334</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14451,7 +14451,7 @@
         <v>45617.47939814815</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14508,7 +14508,7 @@
         <v>45631.48799768519</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14565,7 +14565,7 @@
         <v>45582.55339120371</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14622,7 +14622,7 @@
         <v>45754.65806712963</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14679,7 +14679,7 @@
         <v>45672.69732638889</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>45813</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>45160.4325462963</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14850,7 +14850,7 @@
         <v>45471.49597222222</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14907,7 +14907,7 @@
         <v>45868.57556712963</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>44820</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>45646.85320601852</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>45646.86575231481</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>44272</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>45932.36393518518</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15254,7 +15254,7 @@
         <v>45932.49101851852</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15311,7 +15311,7 @@
         <v>44461</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15368,7 +15368,7 @@
         <v>45874</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15425,7 +15425,7 @@
         <v>45225.58869212963</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15487,7 +15487,7 @@
         <v>45876.50083333333</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         <v>45876.50278935185</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15601,7 +15601,7 @@
         <v>45691.39052083333</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15658,7 +15658,7 @@
         <v>45691.39211805556</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         <v>45877.37292824074</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>44957</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15839,7 +15839,7 @@
         <v>45189.83035879629</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15896,7 +15896,7 @@
         <v>45715.32804398148</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15953,7 +15953,7 @@
         <v>45646</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16010,7 +16010,7 @@
         <v>45714.32625</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16067,7 +16067,7 @@
         <v>45882.58366898148</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16124,7 +16124,7 @@
         <v>45530.64337962963</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>45680.33721064815</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>45763.58126157407</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>45882.63377314815</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16357,7 +16357,7 @@
         <v>45882.65212962963</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16419,7 +16419,7 @@
         <v>45936.66438657408</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16476,7 +16476,7 @@
         <v>45764</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16538,7 +16538,7 @@
         <v>45933.34494212963</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16595,7 +16595,7 @@
         <v>45826</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16657,7 +16657,7 @@
         <v>45933.33965277778</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16714,7 +16714,7 @@
         <v>45762</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16776,7 +16776,7 @@
         <v>45937.42217592592</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16833,7 +16833,7 @@
         <v>45532</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16890,7 +16890,7 @@
         <v>45735.60324074074</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16952,7 +16952,7 @@
         <v>45938.57802083333</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17009,7 +17009,7 @@
         <v>45939.64640046296</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17066,7 +17066,7 @@
         <v>45939.64821759259</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17123,7 +17123,7 @@
         <v>45689.46016203704</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17180,7 +17180,7 @@
         <v>45689.51372685185</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17237,7 +17237,7 @@
         <v>45940.43707175926</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17294,7 +17294,7 @@
         <v>45939.64255787037</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17351,7 +17351,7 @@
         <v>45939.58782407407</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
         <v>45754</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17475,7 +17475,7 @@
         <v>45735.62751157407</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17537,7 +17537,7 @@
         <v>44972</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17594,7 +17594,7 @@
         <v>45912</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17651,7 +17651,7 @@
         <v>44908</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17708,7 +17708,7 @@
         <v>45945.63233796296</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17770,7 +17770,7 @@
         <v>45937</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17832,7 +17832,7 @@
         <v>44442</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17889,7 +17889,7 @@
         <v>45937</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17951,7 +17951,7 @@
         <v>45945.83503472222</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18008,7 +18008,7 @@
         <v>45945.83003472222</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18065,7 +18065,7 @@
         <v>45947.6353125</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18122,7 +18122,7 @@
         <v>45950.50633101852</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18184,7 +18184,7 @@
         <v>45539.7515625</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18241,7 +18241,7 @@
         <v>45952.60009259259</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>45952</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>45222.49092592593</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>45954.41494212963</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18479,7 +18479,7 @@
         <v>45954.04571759259</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>45953.60679398148</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18598,7 +18598,7 @@
         <v>45955.96217592592</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18660,7 +18660,7 @@
         <v>45956.04900462963</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18722,7 +18722,7 @@
         <v>45955.9987962963</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18784,7 +18784,7 @@
         <v>45956.09799768519</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18846,7 +18846,7 @@
         <v>45956.11425925926</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18908,7 +18908,7 @@
         <v>45959</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18970,7 +18970,7 @@
         <v>44960</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         <v>45964.41689814815</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19089,7 +19089,7 @@
         <v>45961.57829861111</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19146,7 +19146,7 @@
         <v>45371</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19203,7 +19203,7 @@
         <v>45965.69846064815</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>45965.36116898148</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19327,7 +19327,7 @@
         <v>45966.56648148148</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
         <v>44909</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19441,7 +19441,7 @@
         <v>45247.5615625</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19498,7 +19498,7 @@
         <v>45217</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>45965.74467592593</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>45965</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19679,7 +19679,7 @@
         <v>45520</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>45967.40354166667</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19793,7 +19793,7 @@
         <v>45530.66306712963</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19850,7 +19850,7 @@
         <v>45002.38197916667</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19912,7 +19912,7 @@
         <v>44925</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>45972.61436342593</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20036,7 +20036,7 @@
         <v>45418</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20093,7 +20093,7 @@
         <v>45973.61737268518</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20155,7 +20155,7 @@
         <v>45579.37496527778</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>45594.3728125</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20279,7 +20279,7 @@
         <v>45974.59010416667</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20336,7 +20336,7 @@
         <v>45634.73024305556</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20393,7 +20393,7 @@
         <v>45471.47335648148</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20450,7 +20450,7 @@
         <v>45754.65130787037</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20507,7 +20507,7 @@
         <v>44469.61916666666</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20564,7 +20564,7 @@
         <v>45639.71756944444</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>45979</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>45443.52902777777</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20745,7 +20745,7 @@
         <v>45981.64387731482</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20802,7 +20802,7 @@
         <v>45981.65017361111</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20859,7 +20859,7 @@
         <v>45981.48138888889</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20921,7 +20921,7 @@
         <v>45986.62628472222</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20983,7 +20983,7 @@
         <v>45985.65357638889</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21040,7 +21040,7 @@
         <v>45331</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21097,7 +21097,7 @@
         <v>46030.45414351852</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21154,7 +21154,7 @@
         <v>45988.53334490741</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21211,7 +21211,7 @@
         <v>45988</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21273,7 +21273,7 @@
         <v>45988.6047800926</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21335,7 +21335,7 @@
         <v>45987.46614583334</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21397,7 +21397,7 @@
         <v>45988.52559027778</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21454,7 +21454,7 @@
         <v>45575.47936342593</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21511,7 +21511,7 @@
         <v>45994.38174768518</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21568,7 +21568,7 @@
         <v>45993.57144675926</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21625,7 +21625,7 @@
         <v>45331</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21682,7 +21682,7 @@
         <v>45994.56637731481</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21739,7 +21739,7 @@
         <v>45993.59385416667</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21796,7 +21796,7 @@
         <v>45600.58436342593</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>45995.58725694445</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>45996.38019675926</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21977,7 +21977,7 @@
         <v>45653</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22034,7 +22034,7 @@
         <v>45603.54407407407</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22091,7 +22091,7 @@
         <v>46039.77504629629</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22148,7 +22148,7 @@
         <v>46042.6171875</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22205,7 +22205,7 @@
         <v>45677.57335648148</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22262,7 +22262,7 @@
         <v>46042.33083333333</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22319,7 +22319,7 @@
         <v>46042.45342592592</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22376,7 +22376,7 @@
         <v>45078</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22433,7 +22433,7 @@
         <v>46042.45846064815</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22490,7 +22490,7 @@
         <v>46042.431875</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22547,7 +22547,7 @@
         <v>45372</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22604,7 +22604,7 @@
         <v>46002.35988425926</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22661,7 +22661,7 @@
         <v>45643.63615740741</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22723,7 +22723,7 @@
         <v>44805</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>45194.64940972222</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22842,7 +22842,7 @@
         <v>46044.44141203703</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>46001.47554398148</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>44648.63498842593</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23018,7 +23018,7 @@
         <v>46043.74402777778</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23075,7 +23075,7 @@
         <v>46002.4481712963</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>45665</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23189,7 +23189,7 @@
         <v>45762</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23251,7 +23251,7 @@
         <v>45244.66481481482</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23308,7 +23308,7 @@
         <v>45147.65657407408</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23365,7 +23365,7 @@
         <v>46048.56425925926</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>45700.38591435185</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>46050.40844907407</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>44728.4549537037</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23598,7 +23598,7 @@
         <v>44728</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>45183.49590277778</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>45183.49864583334</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>46048.9335300926</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>45418.31195601852</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>46049.34185185185</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23960,7 +23960,7 @@
         <v>46049.42231481482</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24022,7 +24022,7 @@
         <v>46051.45114583334</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24079,7 +24079,7 @@
         <v>46051.59634259259</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24141,7 +24141,7 @@
         <v>46051.42921296296</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24198,7 +24198,7 @@
         <v>46052.66626157407</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24255,7 +24255,7 @@
         <v>46009.45252314815</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24312,7 +24312,7 @@
         <v>46049</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24369,7 +24369,7 @@
         <v>45240.98564814815</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24426,7 +24426,7 @@
         <v>45665.56862268518</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24488,7 +24488,7 @@
         <v>45463.47873842593</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24545,7 +24545,7 @@
         <v>46058.59798611111</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24602,7 +24602,7 @@
         <v>45169</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24659,7 +24659,7 @@
         <v>45187.34733796296</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24716,7 +24716,7 @@
         <v>46057.64628472222</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24773,7 +24773,7 @@
         <v>46058.51758101852</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24830,7 +24830,7 @@
         <v>46058.58</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24887,7 +24887,7 @@
         <v>46058.58513888889</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24944,7 +24944,7 @@
         <v>44867.38975694445</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25001,7 +25001,7 @@
         <v>46058.59936342593</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25058,7 +25058,7 @@
         <v>45331.49379629629</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25115,7 +25115,7 @@
         <v>46059.58263888889</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25172,7 +25172,7 @@
         <v>46062.57390046296</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25229,7 +25229,7 @@
         <v>45744.32628472222</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25286,7 +25286,7 @@
         <v>45734.33065972223</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25343,7 +25343,7 @@
         <v>45215.64871527778</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25400,7 +25400,7 @@
         <v>45215</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25457,7 +25457,7 @@
         <v>45247.61887731482</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25514,7 +25514,7 @@
         <v>46021</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25571,7 +25571,7 @@
         <v>45754.65372685185</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25628,7 +25628,7 @@
         <v>45254.30815972222</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25685,7 +25685,7 @@
         <v>45322</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25742,7 +25742,7 @@
         <v>45254.62652777778</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25799,7 +25799,7 @@
         <v>46063.73574074074</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25856,7 +25856,7 @@
         <v>45440.64032407408</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25918,7 +25918,7 @@
         <v>46021</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25975,7 +25975,7 @@
         <v>45771.34391203704</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>46041</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26089,7 +26089,7 @@
         <v>44930.47913194444</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         <v>44886</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26203,7 +26203,7 @@
         <v>45744.39063657408</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26260,7 +26260,7 @@
         <v>46028.45001157407</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26317,7 +26317,7 @@
         <v>46029</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26374,7 +26374,7 @@
         <v>46071.43306712963</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26431,7 +26431,7 @@
         <v>45595.69030092593</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26488,7 +26488,7 @@
         <v>44594.55498842592</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26545,7 +26545,7 @@
         <v>46034</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>46034.59151620371</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         <v>45532</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26716,7 +26716,7 @@
         <v>45775.46444444444</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26773,7 +26773,7 @@
         <v>45265.67287037037</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26835,7 +26835,7 @@
         <v>45315.61605324074</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26892,7 +26892,7 @@
         <v>46033.80243055556</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26949,7 +26949,7 @@
         <v>46034</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27006,7 +27006,7 @@
         <v>46031.31383101852</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27068,7 +27068,7 @@
         <v>45726.58685185185</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27125,7 +27125,7 @@
         <v>45520</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27182,7 +27182,7 @@
         <v>46035.36212962963</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27239,7 +27239,7 @@
         <v>45322</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27301,7 +27301,7 @@
         <v>45531</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27363,7 +27363,7 @@
         <v>44916</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>46036.47221064815</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27482,7 +27482,7 @@
         <v>45008.82340277778</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27539,7 +27539,7 @@
         <v>46036.46501157407</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27596,7 +27596,7 @@
         <v>44960.50465277778</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27653,7 +27653,7 @@
         <v>45194</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>44826.57543981481</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27772,7 +27772,7 @@
         <v>46037.31042824074</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27829,7 +27829,7 @@
         <v>46037.385625</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27886,7 +27886,7 @@
         <v>44970.44603009259</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27943,7 +27943,7 @@
         <v>44673</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28000,7 +28000,7 @@
         <v>44881</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28057,7 +28057,7 @@
         <v>45448.42597222222</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28114,7 +28114,7 @@
         <v>45160.43616898148</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28171,7 +28171,7 @@
         <v>46079</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28233,7 +28233,7 @@
         <v>45596.5975</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28295,7 +28295,7 @@
         <v>46037.82216435186</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28352,7 +28352,7 @@
         <v>44930.61575231481</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28409,7 +28409,7 @@
         <v>45111</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28466,7 +28466,7 @@
         <v>45596.3786574074</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28523,7 +28523,7 @@
         <v>45240.30758101852</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28580,7 +28580,7 @@
         <v>45240.58174768519</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28637,7 +28637,7 @@
         <v>44855.65384259259</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28694,7 +28694,7 @@
         <v>44796.504375</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28751,7 +28751,7 @@
         <v>45214.84159722222</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28808,7 +28808,7 @@
         <v>45440.31517361111</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28865,7 +28865,7 @@
         <v>45471.48064814815</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28922,7 +28922,7 @@
         <v>45576</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28979,7 +28979,7 @@
         <v>45680.54168981482</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29036,7 +29036,7 @@
         <v>45689.54017361111</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29093,7 +29093,7 @@
         <v>44980.64003472222</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29155,7 +29155,7 @@
         <v>45063</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29217,7 +29217,7 @@
         <v>45238.65434027778</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29279,7 +29279,7 @@
         <v>44931.36844907407</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29336,7 +29336,7 @@
         <v>45677.63202546296</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29393,7 +29393,7 @@
         <v>45614.58354166667</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29450,7 +29450,7 @@
         <v>45575</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29512,7 +29512,7 @@
         <v>45377.34111111111</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29569,7 +29569,7 @@
         <v>45617.52883101852</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29626,7 +29626,7 @@
         <v>45589.62921296297</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29683,7 +29683,7 @@
         <v>44980.64266203704</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29745,7 +29745,7 @@
         <v>44942</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29802,7 +29802,7 @@
         <v>45169.66387731482</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29859,7 +29859,7 @@
         <v>45621.60984953704</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29921,7 +29921,7 @@
         <v>45141.37741898148</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29983,7 +29983,7 @@
         <v>44336</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30045,7 +30045,7 @@
         <v>45169.86748842592</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30102,7 +30102,7 @@
         <v>45169.87157407407</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30159,7 +30159,7 @@
         <v>45737.48921296297</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30221,7 +30221,7 @@
         <v>44791</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30278,7 +30278,7 @@
         <v>45296.36752314815</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30335,7 +30335,7 @@
         <v>45614</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30392,7 +30392,7 @@
         <v>44298.57814814815</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30454,7 +30454,7 @@
         <v>44612</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30511,7 +30511,7 @@
         <v>45630.72998842593</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30568,7 +30568,7 @@
         <v>45630.74299768519</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30625,7 +30625,7 @@
         <v>44798</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30687,7 +30687,7 @@
         <v>45359.4921875</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30744,7 +30744,7 @@
         <v>45727</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30801,7 +30801,7 @@
         <v>45722.6621875</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30858,7 +30858,7 @@
         <v>45666.70565972223</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30915,7 +30915,7 @@
         <v>45519.65722222222</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30972,7 +30972,7 @@
         <v>44503</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31034,7 +31034,7 @@
         <v>45453.61982638889</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31091,7 +31091,7 @@
         <v>45666.56121527778</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31153,7 +31153,7 @@
         <v>45513.28902777778</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31210,7 +31210,7 @@
         <v>45754.64412037037</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         <v>45754.65523148148</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31324,7 +31324,7 @@
         <v>45712.64303240741</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31381,7 +31381,7 @@
         <v>45258.3330787037</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31438,7 +31438,7 @@
         <v>45309</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31495,7 +31495,7 @@
         <v>45764</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31557,7 +31557,7 @@
         <v>45204.35577546297</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31614,7 +31614,7 @@
         <v>45754.66570601852</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31671,7 +31671,7 @@
         <v>45182.36759259259</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31728,7 +31728,7 @@
         <v>45244</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31785,7 +31785,7 @@
         <v>45673.36819444445</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31842,7 +31842,7 @@
         <v>45707.65648148148</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31899,7 +31899,7 @@
         <v>45631.49017361111</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31956,7 +31956,7 @@
         <v>45776</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32018,7 +32018,7 @@
         <v>45776</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32080,7 +32080,7 @@
         <v>44426</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32137,7 +32137,7 @@
         <v>45483.31819444444</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32194,7 +32194,7 @@
         <v>45783.40085648148</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32251,7 +32251,7 @@
         <v>45783</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32313,7 +32313,7 @@
         <v>45518.63627314815</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32370,7 +32370,7 @@
         <v>45674.65028935186</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32427,7 +32427,7 @@
         <v>45783.45273148148</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32484,7 +32484,7 @@
         <v>45582</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32541,7 +32541,7 @@
         <v>44719</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32598,7 +32598,7 @@
         <v>45492</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32655,7 +32655,7 @@
         <v>45483.67493055556</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32717,7 +32717,7 @@
         <v>45793.54155092593</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32774,7 +32774,7 @@
         <v>45793</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32836,7 +32836,7 @@
         <v>45688.47202546296</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32893,7 +32893,7 @@
         <v>45531.56623842593</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32950,7 +32950,7 @@
         <v>45798</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33007,7 +33007,7 @@
         <v>45800.49591435185</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33064,7 +33064,7 @@
         <v>45803.33614583333</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
